--- a/backend/output_timetables/sem1_DSAI_pre_mid_timetable.xlsx
+++ b/backend/output_timetables/sem1_DSAI_pre_mid_timetable.xlsx
@@ -9,6 +9,9 @@
   <sheets>
     <sheet name="Timetable" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Verification" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="LTPSC_Compliance" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Executive_Summary" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Course_Summary" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -479,7 +482,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>MA162</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -489,12 +492,12 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
+          <t>MA161</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>DS161</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>EC161</t>
         </is>
       </c>
     </row>
@@ -506,27 +509,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>CS161</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>MA161</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
         <is>
           <t>CS161</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>CS161</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Free</t>
         </is>
       </c>
     </row>
@@ -575,7 +578,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>MA162</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -585,12 +588,12 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>MA161</t>
+          <t>MA162</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>EC161 (Lab)</t>
+          <t>EC161</t>
         </is>
       </c>
     </row>
@@ -622,7 +625,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>EC161 (Lab)</t>
+          <t>ELECTIVE_B1 (Tutorial)</t>
         </is>
       </c>
     </row>
@@ -634,27 +637,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>EC161 (Lab)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>DS161</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>MA162</t>
-        </is>
-      </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>MA161</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
@@ -666,7 +669,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>EC161 (Lab)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -769,7 +772,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>–</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -853,22 +856,22 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>**DS161**</t>
+          <t>**EC161**</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Introduction to DATA science and artificial intelligence</t>
+          <t>Digital Design</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Girish Revadigar</t>
+          <t>Prakash Pawar</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2-0-0-0-2</t>
+          <t>3-0-2-0-2</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -878,7 +881,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>2/1</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -888,7 +891,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Complete</t>
+          <t>Partial</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -900,22 +903,22 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>**MA162**</t>
+          <t>**MA161**</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Probability</t>
+          <t>Statistics</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Chinmayananda</t>
+          <t>Ramesh Athe</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2-0-0-0-2</t>
+          <t>3-0-2-0-2</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -935,7 +938,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Complete</t>
+          <t>Partial</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -947,22 +950,22 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>**EC161**</t>
+          <t>**MA162**</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Digital Design</t>
+          <t>Probability</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Prakash Pawar</t>
+          <t>Chinmayananda</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3-0-2-0-2</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -972,7 +975,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2/1</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -982,7 +985,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Partial</t>
+          <t>Complete</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -994,22 +997,22 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>**MA161**</t>
+          <t>**DS161**</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Statistics</t>
+          <t>Introduction to DATA science and artificial intelligence</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Ramesh Athe</t>
+          <t>Girish Revadigar</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>3-0-2-0-2</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1029,7 +1032,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Partial</t>
+          <t>Complete</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -1082,6 +1085,1752 @@
       <c r="I8" t="inlineStr">
         <is>
           <t>--</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Course Code</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Course Name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Required LTPSC</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Required (L/T/P)</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Section A (L/T/P)</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Section B (L/T/P)</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Lectures Status</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Tutorials Status</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Labs Status</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Overall Compliance</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Notes</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>CS161</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>introduction to cyber security</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2/0/0</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2/0/2</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0/0/0</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>[FAIL]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>[WARN] PARTIAL</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Check scheduling</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>DS161</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Introduction to DATA science and artificial intelligence</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2/0/0</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>2/0/0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0/0/0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>[FAIL]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>[WARN] PARTIAL</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Check scheduling</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>EC161</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Digital Design</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>3-0-2-0-2</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3/0/2</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>2/0/2</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0/0/0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>[FAIL]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>[FAIL]</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>[WARN] PARTIAL</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Check scheduling</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>3-0-0-0-3</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3/0/0</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>2/1/0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0/0/0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>[FAIL]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>[WARN] PARTIAL</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Check scheduling</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>MA161</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Statistics</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>3-0-2-0-2</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3/0/2</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>2/0/0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0/0/0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>[FAIL]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>[FAIL]</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>[WARN] PARTIAL</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Check scheduling</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>MA162</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Probability</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2/0/0</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>2/0/0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0/0/0</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>[FAIL]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>[OK]</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>[WARN] PARTIAL</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Check scheduling</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Metric</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Details</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Basic Information</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Semester</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Branch: DSAI</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Basic Information</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Generation Date</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2025-12-13 16:20</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Timetable generation timestamp</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Course Statistics</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Total Courses</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Core: 4, Elective: 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>LTPSC Compliance</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Compliance Rate</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0/6 courses fully compliant</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Room Utilization</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Rooms Used</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>0/35</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Utilization: 0.0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Schedule Density</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Time Slot Utilization</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>24.3%</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>A: 48.6%, B: 0.0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Quality Assessment</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Overall Quality</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>[WARN] NEEDS REVIEW</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Score: 31.3/100</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:P15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Schedule Type</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Semester</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Branch</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Course Code</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Course Name</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Credits</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>LTPSC</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Lectures/Week</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Tutorials/Week</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Practicals/Week</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Faculty</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Department</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Half Semester</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Post mid-sem</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Elective</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Inclusion Reasoning</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>HS152</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Economics/IET</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3-0-0-0-3</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Anushree Kini</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>CS161</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Problem Solving</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3-0-2-0-4</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>2</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Animesh Roy</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>HS157</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Computational Thinking</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1-0-0-0-1</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Chandrika Kamat</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>HS156</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Holistic Personality Development</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1-0-0-0-1</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Rajesh N S</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>Half Semester = No, Post mid-sem = No (pre-mid only)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>MA161</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Statistics</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Ramesh Athe</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>Half Semester = Yes (scheduled in both pre-mid and post-mid)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>DS161</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Introduction to data science and artifical inteligance</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Abdul Wahid</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>CSE</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>Half Semester = Yes (scheduled in both pre-mid and post-mid)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>MA162</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Probability</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Chinmayananda</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>Half Semester = Yes (scheduled in both pre-mid and post-mid)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>EC161</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Digital Design</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>3-0-2-0-2</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>2</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Prakash Pawar</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>Half Semester = Yes (scheduled in both pre-mid and post-mid)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>PH151</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Introduction to quantum Physics</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Ravishankar</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>Half Semester = Yes (scheduled in both pre-mid and post-mid)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>DS151</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Linux for Engineers</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>Vivekraj</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>Half Semester = Yes (scheduled in both pre-mid and post-mid)</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>CS101</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Fundamentals of Computing</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>Mallikarjun K</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>Half Semester = Yes (scheduled in both pre-mid and post-mid)</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>HS102</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Kannada Kali-Nali</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>Anand B</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>Half Semester = Yes (scheduled in both pre-mid and post-mid)</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>HS103</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Leveraging IT for Better Life</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>Rajesh N S</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>Half Semester = Yes (scheduled in both pre-mid and post-mid)</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>DE101</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Basics of Design</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>Sandesh Phalke</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>Half Semester = Yes (scheduled in both pre-mid and post-mid)</t>
         </is>
       </c>
     </row>

--- a/backend/output_timetables/sem1_DSAI_pre_mid_timetable.xlsx
+++ b/backend/output_timetables/sem1_DSAI_pre_mid_timetable.xlsx
@@ -1774,16 +1774,16 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>6.25</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
@@ -1944,16 +1944,16 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>6.25</v>
+        <v>0</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
@@ -2116,7 +2116,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>CS161 (Lab) [L408]</t>
+          <t>CS161 (Lab) [L403]</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -2148,7 +2148,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CS161 (Lab) [L408]</t>
+          <t>CS161 (Lab) [L403]</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -3146,7 +3146,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M112"/>
+  <dimension ref="A1:M52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3330,7 +3330,7 @@
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr">
         <is>
-          <t>L408</t>
+          <t>L403</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
@@ -3389,7 +3389,7 @@
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr">
         <is>
-          <t>L408</t>
+          <t>L403</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
@@ -3969,7 +3969,7 @@
         </is>
       </c>
       <c r="I14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -4068,7 +4068,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -4131,7 +4131,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -4194,7 +4194,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -4257,7 +4257,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -4320,7 +4320,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -4383,7 +4383,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -4446,7 +4446,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -4509,7 +4509,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -4572,7 +4572,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -4635,7 +4635,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -4698,7 +4698,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -4761,7 +4761,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -4774,11 +4774,7 @@
           <t>120</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="b">
         <v>0</v>
       </c>
@@ -4790,12 +4786,12 @@
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>MA161</t>
+          <t>DS161</t>
         </is>
       </c>
     </row>
@@ -4815,27 +4811,27 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I28" t="b">
@@ -4846,15 +4842,19 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>DS161</t>
+          <t>PH151</t>
         </is>
       </c>
     </row>
@@ -4874,27 +4874,27 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I29" t="b">
@@ -4905,15 +4905,19 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>MA162</t>
+          <t>DS151</t>
         </is>
       </c>
     </row>
@@ -4933,12 +4937,12 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -4964,7 +4968,11 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="L30" t="inlineStr">
         <is>
           <t>C004</t>
@@ -4972,7 +4980,7 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>MA161</t>
+          <t>CS101</t>
         </is>
       </c>
     </row>
@@ -4992,12 +5000,12 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -5023,7 +5031,11 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="L31" t="inlineStr">
         <is>
           <t>C004</t>
@@ -5031,7 +5043,7 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>DS161</t>
+          <t>CS151</t>
         </is>
       </c>
     </row>
@@ -5051,12 +5063,12 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -5082,7 +5094,11 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="L32" t="inlineStr">
         <is>
           <t>C004</t>
@@ -5090,7 +5106,7 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>MA162</t>
+          <t>HS157</t>
         </is>
       </c>
     </row>
@@ -5110,27 +5126,27 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I33" t="b">
@@ -5141,15 +5157,19 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>EC161</t>
+          <t>HS102</t>
         </is>
       </c>
     </row>
@@ -5174,7 +5194,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -5212,7 +5232,7 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>PH151</t>
+          <t>HS103</t>
         </is>
       </c>
     </row>
@@ -5237,7 +5257,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -5275,7 +5295,7 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>DS151</t>
+          <t>DE101</t>
         </is>
       </c>
     </row>
@@ -5300,7 +5320,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -5338,7 +5358,7 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>CS101</t>
+          <t>HS156</t>
         </is>
       </c>
     </row>
@@ -5363,7 +5383,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -5401,7 +5421,7 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>CS151</t>
+          <t>HS152</t>
         </is>
       </c>
     </row>
@@ -5426,7 +5446,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -5464,7 +5484,7 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>HS157</t>
+          <t>CS161</t>
         </is>
       </c>
     </row>
@@ -5489,22 +5509,22 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>Hardware Lab</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Equipment</t>
         </is>
       </c>
       <c r="I39" t="b">
@@ -5515,19 +5535,15 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L105</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>HS102</t>
+          <t>EC161 (Lab)</t>
         </is>
       </c>
     </row>
@@ -5547,12 +5563,12 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -5590,7 +5606,7 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>HS103</t>
+          <t>HS157</t>
         </is>
       </c>
     </row>
@@ -5610,12 +5626,12 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -5653,7 +5669,7 @@
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>DE101</t>
+          <t>HS156</t>
         </is>
       </c>
     </row>
@@ -5673,12 +5689,12 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -5716,7 +5732,7 @@
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>HS156</t>
+          <t>HS152</t>
         </is>
       </c>
     </row>
@@ -5736,12 +5752,12 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -5779,7 +5795,7 @@
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>HS152</t>
+          <t>PH151</t>
         </is>
       </c>
     </row>
@@ -5799,12 +5815,12 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -5842,7 +5858,7 @@
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>CS161</t>
+          <t>DS151</t>
         </is>
       </c>
     </row>
@@ -5862,12 +5878,12 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -5893,7 +5909,11 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="L45" t="inlineStr">
         <is>
           <t>C004</t>
@@ -5901,7 +5921,7 @@
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>EC161</t>
+          <t>CS101</t>
         </is>
       </c>
     </row>
@@ -5921,27 +5941,27 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>240</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="I46" t="b">
@@ -5952,15 +5972,19 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>EC161 (Lab)</t>
+          <t>HS102</t>
         </is>
       </c>
     </row>
@@ -5980,12 +6004,12 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -6011,7 +6035,11 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="L47" t="inlineStr">
         <is>
           <t>C004</t>
@@ -6019,7 +6047,7 @@
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>EC161 (Lab)</t>
+          <t>HS103</t>
         </is>
       </c>
     </row>
@@ -6039,12 +6067,12 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -6082,7 +6110,7 @@
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>HS157</t>
+          <t>DE101</t>
         </is>
       </c>
     </row>
@@ -6102,12 +6130,12 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -6145,7 +6173,7 @@
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>HS156</t>
+          <t>CS151</t>
         </is>
       </c>
     </row>
@@ -6165,12 +6193,12 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -6208,7 +6236,7 @@
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>HS152</t>
+          <t>CS161</t>
         </is>
       </c>
     </row>
@@ -6228,27 +6256,27 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>Hardware Lab</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Equipment</t>
         </is>
       </c>
       <c r="I51" t="b">
@@ -6259,19 +6287,15 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L105</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>PH151</t>
+          <t>EC161 (Lab)</t>
         </is>
       </c>
     </row>
@@ -6291,27 +6315,27 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I52" t="b">
@@ -6322,3759 +6346,15 @@
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>DS151</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="n">
-        <v>1</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I53" t="b">
-        <v>0</v>
-      </c>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M53" t="inlineStr">
-        <is>
-          <t>CS101</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="n">
-        <v>1</v>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I54" t="b">
-        <v>0</v>
-      </c>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M54" t="inlineStr">
-        <is>
-          <t>HS102</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="n">
-        <v>1</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I55" t="b">
-        <v>0</v>
-      </c>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M55" t="inlineStr">
-        <is>
-          <t>HS103</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="n">
-        <v>1</v>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I56" t="b">
-        <v>0</v>
-      </c>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M56" t="inlineStr">
-        <is>
-          <t>DE101</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="n">
-        <v>1</v>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I57" t="b">
-        <v>0</v>
-      </c>
-      <c r="J57" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M57" t="inlineStr">
-        <is>
-          <t>CS151</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="n">
-        <v>1</v>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I58" t="b">
-        <v>0</v>
-      </c>
-      <c r="J58" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M58" t="inlineStr">
-        <is>
-          <t>CS161</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="n">
-        <v>1</v>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I59" t="b">
-        <v>0</v>
-      </c>
-      <c r="J59" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M59" t="inlineStr">
-        <is>
-          <t>HS157</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="n">
-        <v>1</v>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I60" t="b">
-        <v>0</v>
-      </c>
-      <c r="J60" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M60" t="inlineStr">
-        <is>
-          <t>HS156</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="n">
-        <v>1</v>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I61" t="b">
-        <v>0</v>
-      </c>
-      <c r="J61" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M61" t="inlineStr">
-        <is>
-          <t>HS152</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="n">
-        <v>1</v>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I62" t="b">
-        <v>0</v>
-      </c>
-      <c r="J62" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M62" t="inlineStr">
-        <is>
-          <t>PH151</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="n">
-        <v>1</v>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I63" t="b">
-        <v>0</v>
-      </c>
-      <c r="J63" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M63" t="inlineStr">
-        <is>
-          <t>DS151</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="n">
-        <v>1</v>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I64" t="b">
-        <v>0</v>
-      </c>
-      <c r="J64" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M64" t="inlineStr">
-        <is>
-          <t>CS101</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="n">
-        <v>1</v>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I65" t="b">
-        <v>0</v>
-      </c>
-      <c r="J65" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M65" t="inlineStr">
-        <is>
-          <t>HS102</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="n">
-        <v>1</v>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I66" t="b">
-        <v>0</v>
-      </c>
-      <c r="J66" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M66" t="inlineStr">
-        <is>
-          <t>HS103</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="n">
-        <v>1</v>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I67" t="b">
-        <v>0</v>
-      </c>
-      <c r="J67" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M67" t="inlineStr">
-        <is>
-          <t>DE101</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="n">
-        <v>1</v>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I68" t="b">
-        <v>0</v>
-      </c>
-      <c r="J68" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M68" t="inlineStr">
-        <is>
-          <t>CS151</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="n">
-        <v>1</v>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>09:00-10:30</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I69" t="b">
-        <v>0</v>
-      </c>
-      <c r="J69" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M69" t="inlineStr">
-        <is>
-          <t>CS161</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="n">
-        <v>1</v>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I70" t="b">
-        <v>0</v>
-      </c>
-      <c r="J70" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M70" t="inlineStr">
-        <is>
-          <t>HS157</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="n">
-        <v>1</v>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I71" t="b">
-        <v>0</v>
-      </c>
-      <c r="J71" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M71" t="inlineStr">
-        <is>
-          <t>HS156</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="n">
-        <v>1</v>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I72" t="b">
-        <v>0</v>
-      </c>
-      <c r="J72" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M72" t="inlineStr">
-        <is>
-          <t>HS152</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="n">
-        <v>1</v>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I73" t="b">
-        <v>0</v>
-      </c>
-      <c r="J73" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M73" t="inlineStr">
-        <is>
-          <t>PH151</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="n">
-        <v>1</v>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I74" t="b">
-        <v>0</v>
-      </c>
-      <c r="J74" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M74" t="inlineStr">
-        <is>
-          <t>DS151</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="n">
-        <v>1</v>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I75" t="b">
-        <v>0</v>
-      </c>
-      <c r="J75" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M75" t="inlineStr">
-        <is>
-          <t>CS101</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="n">
-        <v>1</v>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I76" t="b">
-        <v>0</v>
-      </c>
-      <c r="J76" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M76" t="inlineStr">
-        <is>
-          <t>HS102</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="n">
-        <v>1</v>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I77" t="b">
-        <v>0</v>
-      </c>
-      <c r="J77" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M77" t="inlineStr">
-        <is>
-          <t>HS103</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="n">
-        <v>1</v>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I78" t="b">
-        <v>0</v>
-      </c>
-      <c r="J78" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M78" t="inlineStr">
-        <is>
-          <t>DE101</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="n">
-        <v>1</v>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I79" t="b">
-        <v>0</v>
-      </c>
-      <c r="J79" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M79" t="inlineStr">
-        <is>
-          <t>CS151</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="n">
-        <v>1</v>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G80" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I80" t="b">
-        <v>0</v>
-      </c>
-      <c r="J80" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M80" t="inlineStr">
-        <is>
-          <t>CS161</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="n">
-        <v>1</v>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I81" t="b">
-        <v>0</v>
-      </c>
-      <c r="J81" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M81" t="inlineStr">
-        <is>
-          <t>PH151</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="n">
-        <v>1</v>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I82" t="b">
-        <v>0</v>
-      </c>
-      <c r="J82" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M82" t="inlineStr">
-        <is>
-          <t>DS151</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="n">
-        <v>1</v>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I83" t="b">
-        <v>0</v>
-      </c>
-      <c r="J83" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M83" t="inlineStr">
-        <is>
-          <t>CS101</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="n">
-        <v>1</v>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I84" t="b">
-        <v>0</v>
-      </c>
-      <c r="J84" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M84" t="inlineStr">
-        <is>
-          <t>CS151</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="n">
-        <v>1</v>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I85" t="b">
-        <v>0</v>
-      </c>
-      <c r="J85" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M85" t="inlineStr">
-        <is>
-          <t>HS157</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="n">
-        <v>1</v>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I86" t="b">
-        <v>0</v>
-      </c>
-      <c r="J86" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M86" t="inlineStr">
-        <is>
-          <t>HS102</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="n">
-        <v>1</v>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G87" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I87" t="b">
-        <v>0</v>
-      </c>
-      <c r="J87" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M87" t="inlineStr">
-        <is>
-          <t>HS103</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="n">
-        <v>1</v>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G88" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I88" t="b">
-        <v>0</v>
-      </c>
-      <c r="J88" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M88" t="inlineStr">
-        <is>
-          <t>DE101</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="n">
-        <v>1</v>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G89" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I89" t="b">
-        <v>0</v>
-      </c>
-      <c r="J89" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M89" t="inlineStr">
-        <is>
-          <t>HS156</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="n">
-        <v>1</v>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G90" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I90" t="b">
-        <v>0</v>
-      </c>
-      <c r="J90" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M90" t="inlineStr">
-        <is>
-          <t>HS152</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="n">
-        <v>1</v>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G91" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I91" t="b">
-        <v>0</v>
-      </c>
-      <c r="J91" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M91" t="inlineStr">
-        <is>
-          <t>CS161</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="n">
-        <v>1</v>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>large classroom</t>
-        </is>
-      </c>
-      <c r="G92" t="inlineStr">
-        <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I92" t="b">
-        <v>0</v>
-      </c>
-      <c r="J92" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>C002</t>
-        </is>
-      </c>
-      <c r="M92" t="inlineStr">
-        <is>
-          <t>MA161</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="n">
-        <v>1</v>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>large classroom</t>
-        </is>
-      </c>
-      <c r="G93" t="inlineStr">
-        <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I93" t="b">
-        <v>0</v>
-      </c>
-      <c r="J93" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>C002</t>
-        </is>
-      </c>
-      <c r="M93" t="inlineStr">
-        <is>
           <t>DS161</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="n">
-        <v>1</v>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>Mon</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>large classroom</t>
-        </is>
-      </c>
-      <c r="G94" t="inlineStr">
-        <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I94" t="b">
-        <v>0</v>
-      </c>
-      <c r="J94" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>C002</t>
-        </is>
-      </c>
-      <c r="M94" t="inlineStr">
-        <is>
-          <t>MA162</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="n">
-        <v>1</v>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G95" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I95" t="b">
-        <v>0</v>
-      </c>
-      <c r="J95" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M95" t="inlineStr">
-        <is>
-          <t>MA161</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="n">
-        <v>1</v>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G96" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I96" t="b">
-        <v>0</v>
-      </c>
-      <c r="J96" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M96" t="inlineStr">
-        <is>
-          <t>DS161</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="n">
-        <v>1</v>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G97" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I97" t="b">
-        <v>0</v>
-      </c>
-      <c r="J97" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M97" t="inlineStr">
-        <is>
-          <t>MA162</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="n">
-        <v>1</v>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>large classroom</t>
-        </is>
-      </c>
-      <c r="G98" t="inlineStr">
-        <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I98" t="b">
-        <v>0</v>
-      </c>
-      <c r="J98" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>C002</t>
-        </is>
-      </c>
-      <c r="M98" t="inlineStr">
-        <is>
-          <t>EC161</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="n">
-        <v>1</v>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G99" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I99" t="b">
-        <v>0</v>
-      </c>
-      <c r="J99" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M99" t="inlineStr">
-        <is>
-          <t>PH151</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="n">
-        <v>1</v>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G100" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I100" t="b">
-        <v>0</v>
-      </c>
-      <c r="J100" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M100" t="inlineStr">
-        <is>
-          <t>DS151</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="n">
-        <v>1</v>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G101" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I101" t="b">
-        <v>0</v>
-      </c>
-      <c r="J101" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M101" t="inlineStr">
-        <is>
-          <t>CS101</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="n">
-        <v>1</v>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G102" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I102" t="b">
-        <v>0</v>
-      </c>
-      <c r="J102" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M102" t="inlineStr">
-        <is>
-          <t>CS151</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="n">
-        <v>1</v>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G103" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I103" t="b">
-        <v>0</v>
-      </c>
-      <c r="J103" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M103" t="inlineStr">
-        <is>
-          <t>HS157</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="n">
-        <v>1</v>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G104" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I104" t="b">
-        <v>0</v>
-      </c>
-      <c r="J104" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M104" t="inlineStr">
-        <is>
-          <t>HS102</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="n">
-        <v>1</v>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G105" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I105" t="b">
-        <v>0</v>
-      </c>
-      <c r="J105" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M105" t="inlineStr">
-        <is>
-          <t>HS103</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="n">
-        <v>1</v>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G106" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I106" t="b">
-        <v>0</v>
-      </c>
-      <c r="J106" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M106" t="inlineStr">
-        <is>
-          <t>DE101</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="n">
-        <v>1</v>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G107" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I107" t="b">
-        <v>0</v>
-      </c>
-      <c r="J107" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M107" t="inlineStr">
-        <is>
-          <t>HS156</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="n">
-        <v>1</v>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G108" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I108" t="b">
-        <v>0</v>
-      </c>
-      <c r="J108" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M108" t="inlineStr">
-        <is>
-          <t>HS152</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="n">
-        <v>1</v>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G109" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I109" t="b">
-        <v>0</v>
-      </c>
-      <c r="J109" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M109" t="inlineStr">
-        <is>
-          <t>CS161</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="n">
-        <v>1</v>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G110" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I110" t="b">
-        <v>0</v>
-      </c>
-      <c r="J110" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M110" t="inlineStr">
-        <is>
-          <t>EC161</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="n">
-        <v>1</v>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>large classroom</t>
-        </is>
-      </c>
-      <c r="G111" t="inlineStr">
-        <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I111" t="b">
-        <v>0</v>
-      </c>
-      <c r="J111" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>C002</t>
-        </is>
-      </c>
-      <c r="M111" t="inlineStr">
-        <is>
-          <t>EC161 (Lab)</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="n">
-        <v>1</v>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>Wed</t>
-        </is>
-      </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>Auditorium</t>
-        </is>
-      </c>
-      <c r="G112" t="inlineStr">
-        <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I112" t="b">
-        <v>0</v>
-      </c>
-      <c r="J112" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
-      <c r="M112" t="inlineStr">
-        <is>
-          <t>EC161 (Lab)</t>
         </is>
       </c>
     </row>

--- a/backend/output_timetables/sem1_DSAI_pre_mid_timetable.xlsx
+++ b/backend/output_timetables/sem1_DSAI_pre_mid_timetable.xlsx
@@ -436,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,27 +479,27 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ELECTIVE_B1</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>CS161 [C004]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>ELECTIVE_B1</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>EC161 [C302]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -511,27 +511,27 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CS161 [C004]</t>
+          <t>ELECTIVE_B1</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>MA161 [C304]</t>
+          <t>CS161 [C205]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>DS161 [C002]</t>
+          <t>ELECTIVE_B1</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>EC161 [C001]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -543,158 +543,222 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>12:00-13:00</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>CS161 [C205]</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>MA161 [C002]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>DS161 [C002]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>CS161 (Lab)</t>
+          <t>LUNCH BREAK</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>DS161 [C004]</t>
+          <t>LUNCH BREAK</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>MA162 [C004]</t>
+          <t>LUNCH BREAK</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>EC161 (Lab)</t>
+          <t>LUNCH BREAK</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>LUNCH BREAK</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CS161 (Lab) [C004]</t>
+          <t>CS161 (Lab) [L404]</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>DS161 [C002]</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>MA162 [C001]</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>EC161 (Lab) [L105]</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
           <t>Free</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>EC161 (Lab) [L206]</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1 (Tutorial)</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>MA161 [C004]</t>
+          <t>CS161 (Lab) [L404]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>MA162 [C302]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>EC161 [C004]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>EC161 (Lab) [L105]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>ELECTIVE_B1 (Tutorial)</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>MA161 [C002]</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>MA162 [C002]</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>EC161 [C001]</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
           <t>17:00-18:00</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B9" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>18:30-20:00</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
@@ -778,16 +842,16 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>11.25</v>
       </c>
       <c r="H2" t="inlineStr"/>
     </row>
@@ -808,16 +872,16 @@
         </is>
       </c>
       <c r="D3" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="E3" t="n">
         <v>1.5</v>
       </c>
-      <c r="E3" t="n">
-        <v>0.3</v>
-      </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>3.75</v>
+        <v>18.75</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -876,16 +940,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>26.25</v>
+        <v>0</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -1046,16 +1110,16 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>6.25</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -1284,16 +1348,16 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -1318,16 +1382,16 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
@@ -1488,16 +1552,16 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
@@ -1556,16 +1620,16 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
@@ -1774,16 +1838,16 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>6.25</v>
+        <v>0</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
@@ -1944,16 +2008,16 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>6.25</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
@@ -1972,7 +2036,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2015,27 +2079,27 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>07:30-09:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ELECTIVE_B1</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>CS161 [C004]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>ELECTIVE_B1</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>EC161 [C302]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -2047,27 +2111,27 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CS161 [C004]</t>
+          <t>ELECTIVE_B1</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>MA161 [C304]</t>
+          <t>CS161 [C205]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>DS161 [C002]</t>
+          <t>ELECTIVE_B1</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>EC161 [C001]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -2079,158 +2143,222 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>12:00-13:00</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>CS161 [C205]</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>MA161 [C002]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>DS161 [C002]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>LUNCH BREAK</t>
+          <t>Free</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>12:00-13:00</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>CS161 (Lab) [L403]</t>
+          <t>LUNCH BREAK</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>DS161 [C004]</t>
+          <t>LUNCH BREAK</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>MA162 [C004]</t>
+          <t>LUNCH BREAK</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>EC161 (Lab) [C004]</t>
+          <t>LUNCH BREAK</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>LUNCH BREAK</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>13:00-14:30</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CS161 (Lab) [L403]</t>
+          <t>CS161 (Lab) [L408]</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>DS161 [C002]</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>MA162 [C001]</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>EC161 (Lab) [L105]</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
           <t>Free</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>EC161 (Lab) [L206]</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1 (Tutorial)</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>MA161 [C004]</t>
+          <t>CS161 (Lab) [L408]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>MA162 [C302]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>EC161 [C004]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>EC161 (Lab) [L105]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>ELECTIVE_B1 (Tutorial)</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>15:30-17:00</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>MA161 [C002]</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>MA162 [C002]</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>EC161 [C001]</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
           <t>17:00-18:00</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B9" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>18:30-20:00</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
         <is>
           <t>Free</t>
         </is>
@@ -2280,12 +2408,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>HS157</t>
+          <t>HS152</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C302</t>
         </is>
       </c>
     </row>
@@ -2297,12 +2425,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>HS156</t>
+          <t>HS157</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C204</t>
         </is>
       </c>
     </row>
@@ -2314,12 +2442,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>HS152</t>
+          <t>HS156</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
     </row>
@@ -2336,7 +2464,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C203</t>
         </is>
       </c>
     </row>
@@ -2370,7 +2498,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003</t>
         </is>
       </c>
     </row>
@@ -2387,7 +2515,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C002</t>
         </is>
       </c>
     </row>
@@ -2404,7 +2532,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
     </row>
@@ -2421,7 +2549,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C104</t>
         </is>
       </c>
     </row>
@@ -2438,7 +2566,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C202</t>
         </is>
       </c>
     </row>
@@ -2455,7 +2583,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001, C205</t>
         </is>
       </c>
     </row>
@@ -2615,7 +2743,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L404, C205</t>
         </is>
       </c>
     </row>
@@ -2662,7 +2790,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>C304, C004</t>
+          <t>C002</t>
         </is>
       </c>
     </row>
@@ -2709,7 +2837,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>C002, C004</t>
+          <t>C002</t>
         </is>
       </c>
     </row>
@@ -2756,7 +2884,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>C302, C004</t>
+          <t>C002, C001</t>
         </is>
       </c>
     </row>
@@ -2803,7 +2931,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>L206, C302, C004</t>
+          <t>L105, C001</t>
         </is>
       </c>
     </row>
@@ -2923,7 +3051,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -2936,13 +3064,8 @@
           <t>120</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -2950,42 +3073,42 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>DS161</t>
+          <t>MA162, EC161</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.6</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>120</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -2993,23 +3116,23 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>EC161, MA162, CS161...</t>
+          <t>MA162, DS161, MA161</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>1.4</t>
+          <t>1.0</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -3024,7 +3147,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -3036,11 +3159,11 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>MA162, EC161</t>
+          <t>CS161</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -3052,26 +3175,26 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>L105</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Hardware Lab</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Equipment</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -3083,38 +3206,38 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>MA161</t>
+          <t>EC161 (Lab)</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.4</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>L206</t>
+          <t>L404</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Hardware Lab</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>80</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Equipment</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -3126,12 +3249,12 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>EC161 (Lab)</t>
+          <t>CS161 (Lab)</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.4</t>
         </is>
       </c>
     </row>
@@ -3146,7 +3269,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M52"/>
+  <dimension ref="A1:N50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3220,6 +3343,11 @@
           <t>course</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>session_type</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -3247,17 +3375,17 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I2" t="b">
@@ -3271,12 +3399,17 @@
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
           <t>CS161</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -3330,12 +3463,17 @@
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr">
         <is>
-          <t>L403</t>
+          <t>L408</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
           <t>CS161 (Lab)</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>Lab</t>
         </is>
       </c>
     </row>
@@ -3389,12 +3527,17 @@
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr">
         <is>
-          <t>L403</t>
+          <t>L408</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
           <t>CS161 (Lab)</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>Lab</t>
         </is>
       </c>
     </row>
@@ -3424,17 +3567,17 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I5" t="b">
@@ -3448,12 +3591,17 @@
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
           <t>MA161</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -3483,17 +3631,17 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I6" t="b">
@@ -3507,12 +3655,17 @@
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
           <t>CS161</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -3542,17 +3695,17 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I7" t="b">
@@ -3566,12 +3719,17 @@
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
           <t>MA161</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -3601,17 +3759,17 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I8" t="b">
@@ -3625,12 +3783,17 @@
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
           <t>DS161</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -3660,12 +3823,12 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -3684,12 +3847,17 @@
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
           <t>MA162</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -3751,6 +3919,11 @@
           <t>DS161</t>
         </is>
       </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -3778,19 +3951,15 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="b">
         <v>0</v>
       </c>
@@ -3802,12 +3971,17 @@
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
           <t>MA162</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -3837,19 +4011,15 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="b">
         <v>0</v>
       </c>
@@ -3861,12 +4031,17 @@
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
           <t>EC161</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -3896,19 +4071,15 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="b">
         <v>0</v>
       </c>
@@ -3920,12 +4091,17 @@
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
           <t>EC161</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -3955,21 +4131,21 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>Hardware Lab</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Equipment</t>
         </is>
       </c>
       <c r="I14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -3979,12 +4155,17 @@
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>L105</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
           <t>EC161 (Lab)</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>Lab</t>
         </is>
       </c>
     </row>
@@ -4038,12 +4219,17 @@
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr">
         <is>
-          <t>L206</t>
+          <t>L105</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
           <t>EC161 (Lab)</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>Lab</t>
         </is>
       </c>
     </row>
@@ -4073,17 +4259,17 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I16" t="b">
@@ -4101,12 +4287,17 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
           <t>PH151</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -4172,6 +4363,11 @@
           <t>DS151</t>
         </is>
       </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -4199,17 +4395,17 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I18" t="b">
@@ -4227,12 +4423,17 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
           <t>CS101</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -4262,17 +4463,17 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I19" t="b">
@@ -4290,12 +4491,17 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
           <t>CS151</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -4325,17 +4531,17 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I20" t="b">
@@ -4353,12 +4559,17 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
           <t>HS157</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -4388,17 +4599,17 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I21" t="b">
@@ -4416,12 +4627,17 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
           <t>HS102</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -4451,17 +4667,17 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I22" t="b">
@@ -4479,12 +4695,17 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
           <t>HS103</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -4514,17 +4735,17 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I23" t="b">
@@ -4542,12 +4763,17 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
           <t>DE101</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -4577,17 +4803,17 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I24" t="b">
@@ -4605,12 +4831,17 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
           <t>HS156</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -4640,17 +4871,17 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I25" t="b">
@@ -4668,12 +4899,17 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
           <t>HS152</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -4703,19 +4939,15 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="b">
         <v>0</v>
       </c>
@@ -4731,12 +4963,17 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
           <t>CS161</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -4794,6 +5031,7 @@
           <t>DS161</t>
         </is>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -4821,17 +5059,17 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I28" t="b">
@@ -4849,12 +5087,17 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
           <t>PH151</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -4920,6 +5163,11 @@
           <t>DS151</t>
         </is>
       </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -4947,17 +5195,17 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I30" t="b">
@@ -4975,12 +5223,17 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
           <t>CS101</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -5010,17 +5263,17 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I31" t="b">
@@ -5038,12 +5291,17 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
           <t>CS151</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -5073,17 +5331,17 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I32" t="b">
@@ -5101,12 +5359,17 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
           <t>HS157</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -5136,17 +5399,17 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I33" t="b">
@@ -5164,12 +5427,17 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
           <t>HS102</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -5199,17 +5467,17 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I34" t="b">
@@ -5227,12 +5495,17 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
           <t>HS103</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -5262,17 +5535,17 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I35" t="b">
@@ -5290,12 +5563,17 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
           <t>DE101</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -5325,17 +5603,17 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I36" t="b">
@@ -5353,12 +5631,17 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
           <t>HS156</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -5388,17 +5671,17 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I37" t="b">
@@ -5416,12 +5699,17 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
           <t>HS152</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -5451,19 +5739,15 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="b">
         <v>0</v>
       </c>
@@ -5479,12 +5763,17 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
           <t>CS161</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>Lecture</t>
         </is>
       </c>
     </row>
@@ -5546,6 +5835,7 @@
           <t>EC161 (Lab)</t>
         </is>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -5573,17 +5863,17 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I40" t="b">
@@ -5601,12 +5891,17 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>HS157</t>
+          <t>PH151</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -5669,7 +5964,12 @@
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>HS156</t>
+          <t>DS151</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -5699,17 +5999,17 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>135</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I42" t="b">
@@ -5727,12 +6027,17 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>HS152</t>
+          <t>CS101</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -5762,17 +6067,17 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I43" t="b">
@@ -5790,12 +6095,17 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>PH151</t>
+          <t>CS151</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -5825,17 +6135,17 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="I44" t="b">
@@ -5853,12 +6163,17 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>DS151</t>
+          <t>HS157</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -5888,17 +6203,17 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I45" t="b">
@@ -5916,12 +6231,17 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>CS101</t>
+          <t>HS102</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -5951,17 +6271,17 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I46" t="b">
@@ -5979,12 +6299,17 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>HS102</t>
+          <t>HS103</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -6014,17 +6339,17 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I47" t="b">
@@ -6042,12 +6367,17 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>HS103</t>
+          <t>DE101</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -6077,17 +6407,17 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I48" t="b">
@@ -6105,12 +6435,17 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>DE101</t>
+          <t>HS156</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -6140,17 +6475,17 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="I49" t="b">
@@ -6168,12 +6503,17 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>CS151</t>
+          <t>HS152</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -6203,19 +6543,15 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>240</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="b">
         <v>0</v>
       </c>
@@ -6231,7 +6567,7 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C001</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
@@ -6239,122 +6575,9 @@
           <t>CS161</t>
         </is>
       </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="n">
-        <v>1</v>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>17:00-18:00</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>Hardware Lab</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>Equipment</t>
-        </is>
-      </c>
-      <c r="I51" t="b">
-        <v>0</v>
-      </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>L105</t>
-        </is>
-      </c>
-      <c r="M51" t="inlineStr">
-        <is>
-          <t>EC161 (Lab)</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="n">
-        <v>1</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>10:30-12:00</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I52" t="b">
-        <v>0</v>
-      </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>C101</t>
-        </is>
-      </c>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>DS161</t>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
         </is>
       </c>
     </row>
@@ -6850,7 +7073,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2026-01-18 11:33</t>
+          <t>2026-01-19 23:36</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -6936,12 +7159,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>24.3%</t>
+          <t>18.9%</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>A: 48.6%, B: 0.0%</t>
+          <t>A: 37.8%, B: 0.0%</t>
         </is>
       </c>
     </row>
@@ -6963,7 +7186,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Score: 31.3/100</t>
+          <t>Score: 29.7/100</t>
         </is>
       </c>
     </row>
@@ -8165,7 +8388,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>HS157, HS156, HS152, PH151, DS151, CS101, HS102, HS103, DE101</t>
+          <t>HS152, HS157, HS156, PH151, DS151, CS101, HS102, HS103, DE101</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -8251,7 +8474,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>HS157</t>
+          <t>HS152</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -8286,7 +8509,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>HS156</t>
+          <t>HS157</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -8321,7 +8544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>HS152</t>
+          <t>HS156</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">

--- a/backend/output_timetables/sem1_DSAI_pre_mid_timetable.xlsx
+++ b/backend/output_timetables/sem1_DSAI_pre_mid_timetable.xlsx
@@ -1838,16 +1838,16 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>6.25</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
@@ -2008,16 +2008,16 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>6.25</v>
+        <v>0</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
@@ -2212,7 +2212,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CS161 (Lab) [L408]</t>
+          <t>CS161 (Lab) [L403]</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -2244,7 +2244,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CS161 (Lab) [L408]</t>
+          <t>CS161 (Lab) [L403]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -3463,7 +3463,7 @@
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr">
         <is>
-          <t>L408</t>
+          <t>L403</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
@@ -3527,7 +3527,7 @@
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr">
         <is>
-          <t>L408</t>
+          <t>L403</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
@@ -5827,7 +5827,7 @@
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr">
         <is>
-          <t>L105</t>
+          <t>L206</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">

--- a/backend/output_timetables/sem1_DSAI_pre_mid_timetable.xlsx
+++ b/backend/output_timetables/sem1_DSAI_pre_mid_timetable.xlsx
@@ -521,7 +521,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CS161 [C205]</t>
+          <t>CS161 [C004]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -531,7 +531,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>EC161 [C001]</t>
+          <t>EC161 [C003]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -548,17 +548,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CS161 [C205]</t>
+          <t>CS161 [L408]</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>MA161 [C002]</t>
+          <t>MA161 [C004]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>DS161 [C002]</t>
+          <t>DS161 [C104]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -612,17 +612,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CS161 (Lab) [L404]</t>
+          <t>CS161 (Lab) [L207]</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>DS161 [C002]</t>
+          <t>DS161 [L407]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>MA162 [C001]</t>
+          <t>MA162 [C004]</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -644,7 +644,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CS161 (Lab) [L404]</t>
+          <t>CS161 (Lab) [L207]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -676,17 +676,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>MA161 [C002]</t>
+          <t>MA161 [C004]</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>MA162 [C002]</t>
+          <t>MA162 [L405]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>EC161 [C001]</t>
+          <t>EC161 [C004]</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -842,16 +842,16 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>11.25</v>
+        <v>0</v>
       </c>
       <c r="H2" t="inlineStr"/>
     </row>
@@ -872,16 +872,16 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>18.75</v>
+        <v>0</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -906,16 +906,16 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -940,16 +940,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>18.75</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -1076,16 +1076,16 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -1348,16 +1348,16 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -1416,16 +1416,16 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>6.25</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
@@ -1838,16 +1838,16 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>6.25</v>
+        <v>0</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
@@ -1906,16 +1906,16 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
@@ -1974,16 +1974,16 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
@@ -2008,16 +2008,16 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
@@ -2121,7 +2121,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CS161 [C205]</t>
+          <t>CS161 [C004]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -2131,7 +2131,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>EC161 [C001]</t>
+          <t>EC161 [C003]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -2148,17 +2148,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CS161 [C205]</t>
+          <t>CS161 [L408]</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>MA161 [C002]</t>
+          <t>MA161 [C004]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>DS161 [C002]</t>
+          <t>DS161 [C104]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -2212,17 +2212,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CS161 (Lab) [L403]</t>
+          <t>CS161 (Lab) [L207]</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>DS161 [C002]</t>
+          <t>DS161 [L407]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>MA162 [C001]</t>
+          <t>MA162 [C004]</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -2244,7 +2244,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CS161 (Lab) [L403]</t>
+          <t>CS161 (Lab) [L207]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -2276,17 +2276,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>MA161 [C002]</t>
+          <t>MA161 [C004]</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>MA162 [C002]</t>
+          <t>MA162 [L405]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>EC161 [C001]</t>
+          <t>EC161 [C004]</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -2375,7 +2375,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2408,12 +2408,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>HS152</t>
+          <t>HS157</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C004</t>
         </is>
       </c>
     </row>
@@ -2425,12 +2425,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>HS157</t>
+          <t>HS156</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>C204</t>
+          <t>C302</t>
         </is>
       </c>
     </row>
@@ -2442,12 +2442,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>HS156</t>
+          <t>HS152</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>C101</t>
+          <t>C303</t>
         </is>
       </c>
     </row>
@@ -2464,7 +2464,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>C203</t>
+          <t>C304</t>
         </is>
       </c>
     </row>
@@ -2481,7 +2481,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C305</t>
         </is>
       </c>
     </row>
@@ -2515,7 +2515,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>L402</t>
         </is>
       </c>
     </row>
@@ -2532,7 +2532,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>C102</t>
+          <t>L404</t>
         </is>
       </c>
     </row>
@@ -2549,7 +2549,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>L405</t>
         </is>
       </c>
     </row>
@@ -2566,24 +2566,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>C202</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>CS161</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>C001, C205</t>
+          <t>L406</t>
         </is>
       </c>
     </row>
@@ -2708,17 +2691,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>introduction to cyber security</t>
+          <t>Problem Solving</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Girish Revadigar</t>
+          <t>Manjunath</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2-0-0-0-2</t>
+          <t>3-0-2-0-4</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -2738,12 +2721,12 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Complete</t>
+          <t>Partial</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>L404, C205</t>
+          <t>L207, C004, L408</t>
         </is>
       </c>
     </row>
@@ -2790,7 +2773,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C004</t>
         </is>
       </c>
     </row>
@@ -2837,7 +2820,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C104, L407</t>
         </is>
       </c>
     </row>
@@ -2884,7 +2867,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>C002, C001</t>
+          <t>C004, L405</t>
         </is>
       </c>
     </row>
@@ -2931,7 +2914,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>L105, C001</t>
+          <t>C004, C003, L105</t>
         </is>
       </c>
     </row>
@@ -2948,12 +2931,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Complete: 3</t>
+          <t>Complete: 2</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Rate: 50.0%</t>
+          <t>Rate: 33.3%</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -2973,7 +2956,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>[WARN] 3 issues</t>
+          <t>[WARN] 4 issues</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -2993,7 +2976,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3051,7 +3034,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -3061,11 +3044,16 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Projector</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -3073,38 +3061,38 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>MA162, EC161</t>
+          <t>EC161</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>0.6</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>C002</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>240</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -3116,11 +3104,11 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>MA162, DS161, MA161</t>
+          <t>EC161, CS161, MA162...</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -3132,7 +3120,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>C205</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -3147,11 +3135,11 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -3163,12 +3151,12 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>CS161</t>
+          <t>DS161</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -3218,22 +3206,22 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>L404</t>
+          <t>L207</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Software Lab</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -3255,6 +3243,135 @@
       <c r="I6" t="inlineStr">
         <is>
           <t>0.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>L405</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>MA162</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>L407</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>DS161</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>L408</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>CS161</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -3269,7 +3386,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N50"/>
+  <dimension ref="A1:P45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3305,47 +3422,57 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>Course</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>Room Type</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Capacity</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Facilities</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Conflict</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Allocation Type</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Basket</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>room</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>course</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>session_type</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>conflict</t>
         </is>
       </c>
     </row>
@@ -3375,42 +3502,50 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
+          <t>CS161</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
       <c r="H2" t="inlineStr">
         <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
           <t>TV</t>
         </is>
       </c>
-      <c r="I2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="J2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K2" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>C205</t>
-        </is>
-      </c>
+      <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr">
         <is>
+          <t>L408</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
           <t>CS161</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -3439,42 +3574,50 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>CS161 (Lab)</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>Software Lab</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I3" t="b">
-        <v>0</v>
-      </c>
-      <c r="J3" t="inlineStr">
+          <t>40</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+      <c r="J3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K3" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>L403</t>
-        </is>
-      </c>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr">
         <is>
+          <t>L207</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
           <t>CS161 (Lab)</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>Lab</t>
         </is>
+      </c>
+      <c r="P3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -3503,42 +3646,50 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>CS161 (Lab)</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>Software Lab</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I4" t="b">
-        <v>0</v>
-      </c>
-      <c r="J4" t="inlineStr">
+          <t>40</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Computers</t>
+        </is>
+      </c>
+      <c r="J4" t="b">
+        <v>0</v>
+      </c>
+      <c r="K4" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>L403</t>
-        </is>
-      </c>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr">
         <is>
+          <t>L207</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
           <t>CS161 (Lab)</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>Lab</t>
         </is>
+      </c>
+      <c r="P4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -3567,42 +3718,50 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>MA161</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I5" t="b">
-        <v>0</v>
-      </c>
-      <c r="J5" t="inlineStr">
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K5" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>C002</t>
-        </is>
-      </c>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr">
         <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
           <t>MA161</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="O5" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -3631,42 +3790,50 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>CS161</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I6" t="b">
-        <v>0</v>
-      </c>
-      <c r="J6" t="inlineStr">
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J6" t="b">
+        <v>0</v>
+      </c>
+      <c r="K6" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>C205</t>
-        </is>
-      </c>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr">
         <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
           <t>CS161</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -3695,42 +3862,50 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>MA161</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I7" t="b">
-        <v>0</v>
-      </c>
-      <c r="J7" t="inlineStr">
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J7" t="b">
+        <v>0</v>
+      </c>
+      <c r="K7" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>C002</t>
-        </is>
-      </c>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr">
         <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
           <t>MA161</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -3759,42 +3934,50 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>DS161</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I8" t="b">
-        <v>0</v>
-      </c>
-      <c r="J8" t="inlineStr">
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J8" t="b">
+        <v>0</v>
+      </c>
+      <c r="K8" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>C002</t>
-        </is>
-      </c>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr">
         <is>
+          <t>L407</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
           <t>DS161</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="O8" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -3823,42 +4006,50 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>MA162</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I9" t="b">
-        <v>0</v>
-      </c>
-      <c r="J9" t="inlineStr">
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K9" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>C002</t>
-        </is>
-      </c>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr">
         <is>
+          <t>L405</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
           <t>MA162</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P9" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -3887,42 +4078,50 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>DS161</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
           <t>Projector</t>
         </is>
       </c>
-      <c r="I10" t="b">
-        <v>0</v>
-      </c>
-      <c r="J10" t="inlineStr">
+      <c r="J10" t="b">
+        <v>0</v>
+      </c>
+      <c r="K10" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>C002</t>
-        </is>
-      </c>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr">
         <is>
+          <t>C104</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
           <t>DS161</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P10" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -3951,38 +4150,50 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>MA162</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="b">
-        <v>0</v>
-      </c>
-      <c r="J11" t="inlineStr">
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J11" t="b">
+        <v>0</v>
+      </c>
+      <c r="K11" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>C001</t>
-        </is>
-      </c>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr">
         <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
           <t>MA162</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
+      <c r="O11" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P11" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -4011,38 +4222,50 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>EC161</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="b">
-        <v>0</v>
-      </c>
-      <c r="J12" t="inlineStr">
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J12" t="b">
+        <v>0</v>
+      </c>
+      <c r="K12" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>C001</t>
-        </is>
-      </c>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr">
         <is>
+          <t>C004</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
           <t>EC161</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="O12" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -4071,38 +4294,50 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
+          <t>EC161</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
           <t>large classroom</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="b">
-        <v>0</v>
-      </c>
-      <c r="J13" t="inlineStr">
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J13" t="b">
+        <v>0</v>
+      </c>
+      <c r="K13" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>C001</t>
-        </is>
-      </c>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr">
         <is>
+          <t>C003</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
           <t>EC161</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
+      <c r="O13" t="inlineStr">
         <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P13" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -4131,42 +4366,50 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
+          <t>EC161 (Lab)</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
           <t>Hardware Lab</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>40</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>Equipment</t>
         </is>
       </c>
-      <c r="I14" t="b">
-        <v>0</v>
-      </c>
-      <c r="J14" t="inlineStr">
+      <c r="J14" t="b">
+        <v>0</v>
+      </c>
+      <c r="K14" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr">
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr">
         <is>
           <t>L105</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr">
+      <c r="N14" t="inlineStr">
         <is>
           <t>EC161 (Lab)</t>
         </is>
       </c>
-      <c r="N14" t="inlineStr">
+      <c r="O14" t="inlineStr">
         <is>
           <t>Lab</t>
         </is>
+      </c>
+      <c r="P14" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -4195,42 +4438,50 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
+          <t>EC161 (Lab)</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
           <t>Hardware Lab</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>40</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>Equipment</t>
         </is>
       </c>
-      <c r="I15" t="b">
-        <v>0</v>
-      </c>
-      <c r="J15" t="inlineStr">
+      <c r="J15" t="b">
+        <v>0</v>
+      </c>
+      <c r="K15" t="inlineStr">
         <is>
           <t>Global Tracking</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr">
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr">
         <is>
           <t>L105</t>
         </is>
       </c>
-      <c r="M15" t="inlineStr">
+      <c r="N15" t="inlineStr">
         <is>
           <t>EC161 (Lab)</t>
         </is>
       </c>
-      <c r="N15" t="inlineStr">
+      <c r="O15" t="inlineStr">
         <is>
           <t>Lab</t>
         </is>
+      </c>
+      <c r="P15" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -4259,46 +4510,54 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>HS157</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="I16" t="b">
-        <v>0</v>
-      </c>
-      <c r="J16" t="inlineStr">
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J16" t="b">
+        <v>0</v>
+      </c>
+      <c r="K16" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr">
+      <c r="L16" t="inlineStr">
         <is>
           <t>ELECTIVE_B1</t>
         </is>
       </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>C203</t>
-        </is>
-      </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>PH151</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
+          <t>HS157</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P16" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -4327,46 +4586,54 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>HS156</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I17" t="b">
-        <v>0</v>
-      </c>
-      <c r="J17" t="inlineStr">
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J17" t="b">
+        <v>0</v>
+      </c>
+      <c r="K17" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K17" t="inlineStr">
+      <c r="L17" t="inlineStr">
         <is>
           <t>ELECTIVE_B1</t>
         </is>
       </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>DS151</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
+          <t>HS156</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P17" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -4395,46 +4662,54 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>HS152</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I18" t="b">
-        <v>0</v>
-      </c>
-      <c r="J18" t="inlineStr">
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J18" t="b">
+        <v>0</v>
+      </c>
+      <c r="K18" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K18" t="inlineStr">
+      <c r="L18" t="inlineStr">
         <is>
           <t>ELECTIVE_B1</t>
         </is>
       </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>C003</t>
-        </is>
-      </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>CS101</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
+          <t>HS152</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P18" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -4463,46 +4738,54 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
+          <t>PH151</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>96</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I19" t="b">
-        <v>0</v>
-      </c>
-      <c r="J19" t="inlineStr">
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J19" t="b">
+        <v>0</v>
+      </c>
+      <c r="K19" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K19" t="inlineStr">
+      <c r="L19" t="inlineStr">
         <is>
           <t>ELECTIVE_B1</t>
         </is>
       </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>C202</t>
-        </is>
-      </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>CS151</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
+          <t>PH151</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P19" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -4531,46 +4814,54 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
+          <t>DS151</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>96</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>TV</t>
         </is>
       </c>
-      <c r="I20" t="b">
-        <v>0</v>
-      </c>
-      <c r="J20" t="inlineStr">
+      <c r="J20" t="b">
+        <v>0</v>
+      </c>
+      <c r="K20" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K20" t="inlineStr">
+      <c r="L20" t="inlineStr">
         <is>
           <t>ELECTIVE_B1</t>
         </is>
       </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>C204</t>
-        </is>
-      </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>HS157</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
+          <t>DS151</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P20" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -4599,46 +4890,54 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
+          <t>CS101</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
           <t>large classroom</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>120</t>
-        </is>
-      </c>
       <c r="H21" t="inlineStr">
         <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
           <t>Projector</t>
         </is>
       </c>
-      <c r="I21" t="b">
-        <v>0</v>
-      </c>
-      <c r="J21" t="inlineStr">
+      <c r="J21" t="b">
+        <v>0</v>
+      </c>
+      <c r="K21" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K21" t="inlineStr">
+      <c r="L21" t="inlineStr">
         <is>
           <t>ELECTIVE_B1</t>
         </is>
       </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>C002</t>
-        </is>
-      </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>HS102</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
+          <t>CS101</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P21" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -4667,46 +4966,54 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
+          <t>HS102</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I22" t="b">
-        <v>0</v>
-      </c>
-      <c r="J22" t="inlineStr">
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J22" t="b">
+        <v>0</v>
+      </c>
+      <c r="K22" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K22" t="inlineStr">
+      <c r="L22" t="inlineStr">
         <is>
           <t>ELECTIVE_B1</t>
         </is>
       </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>C102</t>
-        </is>
-      </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>HS103</t>
+          <t>L402</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
+          <t>HS102</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P22" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -4735,46 +5042,54 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
+          <t>HS103</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I23" t="b">
-        <v>0</v>
-      </c>
-      <c r="J23" t="inlineStr">
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J23" t="b">
+        <v>0</v>
+      </c>
+      <c r="K23" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K23" t="inlineStr">
+      <c r="L23" t="inlineStr">
         <is>
           <t>ELECTIVE_B1</t>
         </is>
       </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>C104</t>
-        </is>
-      </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>DE101</t>
+          <t>L404</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
+          <t>HS103</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P23" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -4803,46 +5118,54 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
+          <t>DE101</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I24" t="b">
-        <v>0</v>
-      </c>
-      <c r="J24" t="inlineStr">
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J24" t="b">
+        <v>0</v>
+      </c>
+      <c r="K24" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K24" t="inlineStr">
+      <c r="L24" t="inlineStr">
         <is>
           <t>ELECTIVE_B1</t>
         </is>
       </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>C101</t>
-        </is>
-      </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>HS156</t>
+          <t>L405</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
+          <t>DE101</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P24" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -4871,46 +5194,54 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
+          <t>CS151</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I25" t="b">
-        <v>0</v>
-      </c>
-      <c r="J25" t="inlineStr">
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J25" t="b">
+        <v>0</v>
+      </c>
+      <c r="K25" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K25" t="inlineStr">
+      <c r="L25" t="inlineStr">
         <is>
           <t>ELECTIVE_B1</t>
         </is>
       </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>C302</t>
-        </is>
-      </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>HS152</t>
+          <t>L406</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
+          <t>CS151</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P25" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -4929,7 +5260,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -4939,42 +5270,54 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>HS157</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr"/>
-      <c r="I26" t="b">
-        <v>0</v>
-      </c>
-      <c r="J26" t="inlineStr">
+          <t>Auditorium</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J26" t="b">
+        <v>0</v>
+      </c>
+      <c r="K26" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K26" t="inlineStr">
+      <c r="L26" t="inlineStr">
         <is>
           <t>ELECTIVE_B1</t>
         </is>
       </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>C001</t>
-        </is>
-      </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>CS161</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
+          <t>HS157</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P26" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -4993,45 +5336,65 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>HS156</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr"/>
-      <c r="I27" t="b">
-        <v>0</v>
-      </c>
-      <c r="J27" t="inlineStr">
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J27" t="b">
+        <v>0</v>
+      </c>
+      <c r="K27" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr">
         <is>
-          <t>C001</t>
+          <t>ELECTIVE_B1</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>DS161</t>
-        </is>
-      </c>
-      <c r="N27" t="inlineStr"/>
+          <t>C302</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>HS156</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>Lecture</t>
+        </is>
+      </c>
+      <c r="P27" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -5059,46 +5422,54 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
+          <t>HS152</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>96</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>TV</t>
         </is>
       </c>
-      <c r="I28" t="b">
-        <v>0</v>
-      </c>
-      <c r="J28" t="inlineStr">
+      <c r="J28" t="b">
+        <v>0</v>
+      </c>
+      <c r="K28" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K28" t="inlineStr">
+      <c r="L28" t="inlineStr">
         <is>
           <t>ELECTIVE_B1</t>
         </is>
       </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>C203</t>
-        </is>
-      </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>PH151</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
+          <t>HS152</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P28" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -5127,46 +5498,54 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>PH151</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I29" t="b">
-        <v>0</v>
-      </c>
-      <c r="J29" t="inlineStr">
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J29" t="b">
+        <v>0</v>
+      </c>
+      <c r="K29" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K29" t="inlineStr">
+      <c r="L29" t="inlineStr">
         <is>
           <t>ELECTIVE_B1</t>
         </is>
       </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>DS151</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
+          <t>PH151</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -5195,46 +5574,54 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>DS151</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I30" t="b">
-        <v>0</v>
-      </c>
-      <c r="J30" t="inlineStr">
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J30" t="b">
+        <v>0</v>
+      </c>
+      <c r="K30" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K30" t="inlineStr">
+      <c r="L30" t="inlineStr">
         <is>
           <t>ELECTIVE_B1</t>
         </is>
       </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>C003</t>
-        </is>
-      </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>CS101</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
+          <t>DS151</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -5263,46 +5650,54 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>CS101</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
           <t>Projector</t>
         </is>
       </c>
-      <c r="I31" t="b">
-        <v>0</v>
-      </c>
-      <c r="J31" t="inlineStr">
+      <c r="J31" t="b">
+        <v>0</v>
+      </c>
+      <c r="K31" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K31" t="inlineStr">
+      <c r="L31" t="inlineStr">
         <is>
           <t>ELECTIVE_B1</t>
         </is>
       </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>C202</t>
-        </is>
-      </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>CS151</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
+          <t>CS101</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P31" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -5331,46 +5726,54 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
+          <t>HS102</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
       <c r="H32" t="inlineStr">
         <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
           <t>TV</t>
         </is>
       </c>
-      <c r="I32" t="b">
-        <v>0</v>
-      </c>
-      <c r="J32" t="inlineStr">
+      <c r="J32" t="b">
+        <v>0</v>
+      </c>
+      <c r="K32" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K32" t="inlineStr">
+      <c r="L32" t="inlineStr">
         <is>
           <t>ELECTIVE_B1</t>
         </is>
       </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>C204</t>
-        </is>
-      </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>HS157</t>
+          <t>L402</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
+          <t>HS102</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P32" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -5399,46 +5802,54 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>HS103</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I33" t="b">
-        <v>0</v>
-      </c>
-      <c r="J33" t="inlineStr">
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J33" t="b">
+        <v>0</v>
+      </c>
+      <c r="K33" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K33" t="inlineStr">
+      <c r="L33" t="inlineStr">
         <is>
           <t>ELECTIVE_B1</t>
         </is>
       </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>C002</t>
-        </is>
-      </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>HS102</t>
+          <t>L404</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
+          <t>HS103</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P33" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -5467,46 +5878,54 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
+          <t>DE101</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I34" t="b">
-        <v>0</v>
-      </c>
-      <c r="J34" t="inlineStr">
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J34" t="b">
+        <v>0</v>
+      </c>
+      <c r="K34" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K34" t="inlineStr">
+      <c r="L34" t="inlineStr">
         <is>
           <t>ELECTIVE_B1</t>
         </is>
       </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>C102</t>
-        </is>
-      </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>HS103</t>
+          <t>L405</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
+          <t>DE101</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P34" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -5535,46 +5954,54 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
+          <t>CS151</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I35" t="b">
-        <v>0</v>
-      </c>
-      <c r="J35" t="inlineStr">
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J35" t="b">
+        <v>0</v>
+      </c>
+      <c r="K35" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K35" t="inlineStr">
+      <c r="L35" t="inlineStr">
         <is>
           <t>ELECTIVE_B1</t>
         </is>
       </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>C104</t>
-        </is>
-      </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>DE101</t>
+          <t>L406</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
+          <t>CS151</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
           <t>Lecture</t>
         </is>
+      </c>
+      <c r="P35" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -5593,56 +6020,64 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>HS157</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I36" t="b">
-        <v>0</v>
-      </c>
-      <c r="J36" t="inlineStr">
+          <t>240</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>Audio/Video System</t>
+        </is>
+      </c>
+      <c r="J36" t="b">
+        <v>0</v>
+      </c>
+      <c r="K36" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K36" t="inlineStr">
+      <c r="L36" t="inlineStr">
         <is>
           <t>ELECTIVE_B1</t>
         </is>
       </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>C101</t>
-        </is>
-      </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>HS156</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>Lecture</t>
-        </is>
+          <t>HS157</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+      <c r="P36" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -5661,56 +6096,64 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
+          <t>HS156</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>96</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>Projector</t>
         </is>
       </c>
-      <c r="I37" t="b">
-        <v>0</v>
-      </c>
-      <c r="J37" t="inlineStr">
+      <c r="J37" t="b">
+        <v>0</v>
+      </c>
+      <c r="K37" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K37" t="inlineStr">
+      <c r="L37" t="inlineStr">
         <is>
           <t>ELECTIVE_B1</t>
         </is>
       </c>
-      <c r="L37" t="inlineStr">
+      <c r="M37" t="inlineStr">
         <is>
           <t>C302</t>
         </is>
       </c>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>HS152</t>
-        </is>
-      </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>Lecture</t>
-        </is>
+          <t>HS156</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+      <c r="P37" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -5729,52 +6172,64 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>HS152</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr"/>
-      <c r="I38" t="b">
-        <v>0</v>
-      </c>
-      <c r="J38" t="inlineStr">
+          <t>classroom</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J38" t="b">
+        <v>0</v>
+      </c>
+      <c r="K38" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K38" t="inlineStr">
+      <c r="L38" t="inlineStr">
         <is>
           <t>ELECTIVE_B1</t>
         </is>
       </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>C001</t>
-        </is>
-      </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>CS161</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>Lecture</t>
-        </is>
+          <t>HS152</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+      <c r="P38" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -5793,7 +6248,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -5803,39 +6258,55 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Hardware Lab</t>
+          <t>PH151</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Equipment</t>
-        </is>
-      </c>
-      <c r="I39" t="b">
-        <v>0</v>
-      </c>
-      <c r="J39" t="inlineStr">
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J39" t="b">
+        <v>0</v>
+      </c>
+      <c r="K39" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr">
         <is>
-          <t>L206</t>
+          <t>ELECTIVE_B1</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>EC161 (Lab)</t>
-        </is>
-      </c>
-      <c r="N39" t="inlineStr"/>
+          <t>C304</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>PH151</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>Tutorial</t>
+        </is>
+      </c>
+      <c r="P39" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -5863,46 +6334,54 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
+          <t>DS151</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>96</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>TV</t>
         </is>
       </c>
-      <c r="I40" t="b">
-        <v>0</v>
-      </c>
-      <c r="J40" t="inlineStr">
+      <c r="J40" t="b">
+        <v>0</v>
+      </c>
+      <c r="K40" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K40" t="inlineStr">
+      <c r="L40" t="inlineStr">
         <is>
           <t>ELECTIVE_B1</t>
         </is>
       </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>C203</t>
-        </is>
-      </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>PH151</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
+          <t>DS151</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
           <t>Tutorial</t>
         </is>
+      </c>
+      <c r="P40" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -5931,46 +6410,54 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>CS101</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
-        </is>
-      </c>
-      <c r="I41" t="b">
-        <v>0</v>
-      </c>
-      <c r="J41" t="inlineStr">
+          <t>135</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>Projector</t>
+        </is>
+      </c>
+      <c r="J41" t="b">
+        <v>0</v>
+      </c>
+      <c r="K41" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K41" t="inlineStr">
+      <c r="L41" t="inlineStr">
         <is>
           <t>ELECTIVE_B1</t>
         </is>
       </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>C004</t>
-        </is>
-      </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>DS151</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
+          <t>CS101</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
           <t>Tutorial</t>
         </is>
+      </c>
+      <c r="P41" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -5999,46 +6486,54 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>HS102</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I42" t="b">
-        <v>0</v>
-      </c>
-      <c r="J42" t="inlineStr">
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J42" t="b">
+        <v>0</v>
+      </c>
+      <c r="K42" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K42" t="inlineStr">
+      <c r="L42" t="inlineStr">
         <is>
           <t>ELECTIVE_B1</t>
         </is>
       </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>C003</t>
-        </is>
-      </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>CS101</t>
+          <t>L402</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
+          <t>HS102</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
           <t>Tutorial</t>
         </is>
+      </c>
+      <c r="P42" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -6067,46 +6562,54 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
+          <t>HS103</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I43" t="b">
-        <v>0</v>
-      </c>
-      <c r="J43" t="inlineStr">
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J43" t="b">
+        <v>0</v>
+      </c>
+      <c r="K43" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K43" t="inlineStr">
+      <c r="L43" t="inlineStr">
         <is>
           <t>ELECTIVE_B1</t>
         </is>
       </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>C202</t>
-        </is>
-      </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>CS151</t>
+          <t>L404</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
+          <t>HS103</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
           <t>Tutorial</t>
         </is>
+      </c>
+      <c r="P43" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -6135,46 +6638,54 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
+          <t>DE101</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
           <t>classroom</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
       <c r="H44" t="inlineStr">
         <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
           <t>TV</t>
         </is>
       </c>
-      <c r="I44" t="b">
-        <v>0</v>
-      </c>
-      <c r="J44" t="inlineStr">
+      <c r="J44" t="b">
+        <v>0</v>
+      </c>
+      <c r="K44" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K44" t="inlineStr">
+      <c r="L44" t="inlineStr">
         <is>
           <t>ELECTIVE_B1</t>
         </is>
       </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>C204</t>
-        </is>
-      </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>HS157</t>
+          <t>L405</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
+          <t>DE101</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
           <t>Tutorial</t>
         </is>
+      </c>
+      <c r="P44" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -6203,382 +6714,54 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>CS151</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I45" t="b">
-        <v>0</v>
-      </c>
-      <c r="J45" t="inlineStr">
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>TV</t>
+        </is>
+      </c>
+      <c r="J45" t="b">
+        <v>0</v>
+      </c>
+      <c r="K45" t="inlineStr">
         <is>
           <t>Global Tracking (from internal map)</t>
         </is>
       </c>
-      <c r="K45" t="inlineStr">
+      <c r="L45" t="inlineStr">
         <is>
           <t>ELECTIVE_B1</t>
         </is>
       </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>C002</t>
-        </is>
-      </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>HS102</t>
+          <t>L406</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
+          <t>CS151</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
           <t>Tutorial</t>
         </is>
       </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="n">
-        <v>1</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I46" t="b">
-        <v>0</v>
-      </c>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>C102</t>
-        </is>
-      </c>
-      <c r="M46" t="inlineStr">
-        <is>
-          <t>HS103</t>
-        </is>
-      </c>
-      <c r="N46" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="n">
-        <v>1</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I47" t="b">
-        <v>0</v>
-      </c>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>C104</t>
-        </is>
-      </c>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>DE101</t>
-        </is>
-      </c>
-      <c r="N47" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="n">
-        <v>1</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I48" t="b">
-        <v>0</v>
-      </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>C101</t>
-        </is>
-      </c>
-      <c r="M48" t="inlineStr">
-        <is>
-          <t>HS156</t>
-        </is>
-      </c>
-      <c r="N48" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="n">
-        <v>1</v>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>Projector</t>
-        </is>
-      </c>
-      <c r="I49" t="b">
-        <v>0</v>
-      </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>C302</t>
-        </is>
-      </c>
-      <c r="M49" t="inlineStr">
-        <is>
-          <t>HS152</t>
-        </is>
-      </c>
-      <c r="N49" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="n">
-        <v>1</v>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>large classroom</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr"/>
-      <c r="I50" t="b">
-        <v>0</v>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>C001</t>
-        </is>
-      </c>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>CS161</t>
-        </is>
-      </c>
-      <c r="N50" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
+      <c r="P45" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -6665,17 +6848,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>introduction to cyber security</t>
+          <t>Problem Solving</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2-0-0-0-2</t>
+          <t>3-0-2-0-4</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2/0/0</t>
+          <t>3/0/2</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -6700,7 +6883,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>[OK]</t>
+          <t>[FAIL]</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -7073,7 +7256,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2026-01-19 23:36</t>
+          <t>2026-01-26 01:05</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -7098,7 +7281,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Core: 4, Elective: 2</t>
+          <t>Core: 5, Elective: 1</t>
         </is>
       </c>
     </row>
@@ -7137,12 +7320,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>5/36</t>
+          <t>8/36</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Utilization: 13.9%</t>
+          <t>Utilization: 22.2%</t>
         </is>
       </c>
     </row>
@@ -7201,7 +7384,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P15"/>
+  <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8294,6 +8477,78 @@
         </is>
       </c>
       <c r="P15" t="inlineStr">
+        <is>
+          <t>Half Semester = Yes (scheduled in both pre-mid and post-mid)</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Pre-Mid</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>CS151</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>introduction to cyber security</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>2</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>2-0-0-0-2</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>Girish Revadigar</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>DSAI</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
         <is>
           <t>Half Semester = Yes (scheduled in both pre-mid and post-mid)</t>
         </is>
@@ -8388,11 +8643,11 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>HS152, HS157, HS156, PH151, DS151, CS101, HS102, HS103, DE101</t>
+          <t>HS157, HS156, HS152, PH151, DS151, CS101, HS102, HS103, DE101, CS151</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -8421,7 +8676,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8474,7 +8729,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>HS152</t>
+          <t>HS157</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -8488,7 +8743,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -8509,7 +8764,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>HS157</t>
+          <t>HS156</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -8523,7 +8778,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -8544,7 +8799,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>HS156</t>
+          <t>HS152</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -8558,7 +8813,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -8593,7 +8848,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -8628,7 +8883,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -8663,7 +8918,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -8698,7 +8953,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -8733,7 +8988,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -8768,7 +9023,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -8776,6 +9031,41 @@
         </is>
       </c>
       <c r="G10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>CS151</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Mon 09:00-10:30, Wed 09:00-10:30</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Fri 14:30-15:30</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>10</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>

--- a/backend/output_timetables/sem1_DSAI_pre_mid_timetable.xlsx
+++ b/backend/output_timetables/sem1_DSAI_pre_mid_timetable.xlsx
@@ -531,7 +531,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>EC161 [C003]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -548,17 +548,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CS161 [L408]</t>
+          <t>CS161 [C004]</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>MA161 [C004]</t>
+          <t>MA162 [C003]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>DS161 [C104]</t>
+          <t>EC161 [C004]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -612,22 +612,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CS161 (Lab) [L207]</t>
+          <t>CS161 (Lab) [L107]</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>DS161 [L407]</t>
+          <t>EC161 [L408]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>MA162 [C004]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>EC161 (Lab) [L105]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -644,7 +644,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CS161 (Lab) [L207]</t>
+          <t>CS161 (Lab) [L107]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>EC161 (Lab) [L105]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -676,17 +676,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>MA161 [C004]</t>
+          <t>MA162 [C004]</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>MA162 [L405]</t>
+          <t>EC161 (Lab) [L105]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>EC161 [C004]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -713,7 +713,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>EC161 (Lab) [L105]</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -940,16 +940,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="E5" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>18.75</v>
+        <v>15</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -1076,16 +1076,16 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -1178,16 +1178,16 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>6.25</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -1416,16 +1416,16 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>6.25</v>
+        <v>0</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
@@ -1906,16 +1906,16 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
@@ -1974,16 +1974,16 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
@@ -2131,7 +2131,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>EC161 [C003]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -2148,17 +2148,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CS161 [L408]</t>
+          <t>CS161 [C004]</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>MA161 [C004]</t>
+          <t>MA162 [C003]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>DS161 [C104]</t>
+          <t>EC161 [C004]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -2212,22 +2212,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CS161 (Lab) [L207]</t>
+          <t>CS161 (Lab) [L107]</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>DS161 [L407]</t>
+          <t>EC161 [L408]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>MA162 [C004]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>EC161 (Lab) [L105]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -2244,7 +2244,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CS161 (Lab) [L207]</t>
+          <t>CS161 (Lab) [L107]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -2259,7 +2259,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>EC161 (Lab) [L105]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -2276,17 +2276,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>MA161 [C004]</t>
+          <t>MA162 [C004]</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>MA162 [L405]</t>
+          <t>EC161 (Lab) [L105]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>EC161 [C004]</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -2313,7 +2313,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>EC161 (Lab) [L105]</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -2413,7 +2413,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C302</t>
         </is>
       </c>
     </row>
@@ -2430,7 +2430,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C303</t>
         </is>
       </c>
     </row>
@@ -2447,7 +2447,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>C304</t>
         </is>
       </c>
     </row>
@@ -2464,7 +2464,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>C305</t>
         </is>
       </c>
     </row>
@@ -2481,7 +2481,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C003</t>
         </is>
       </c>
     </row>
@@ -2498,7 +2498,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>L402</t>
         </is>
       </c>
     </row>
@@ -2515,7 +2515,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>L402</t>
+          <t>L403</t>
         </is>
       </c>
     </row>
@@ -2581,7 +2581,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2696,7 +2696,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Manjunath</t>
+          <t>Sunil P V, Sunil C K, Animesh Roy</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -2726,29 +2726,29 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>L207, C004, L408</t>
+          <t>C004, L107</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>**MA161**</t>
+          <t>**MA162**</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Statistics</t>
+          <t>Probability</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Ramesh Athe</t>
+          <t>Chinmayananda</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3-0-2-0-2</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -2768,34 +2768,34 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Partial</t>
+          <t>Complete</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C004, C003</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>**DS161**</t>
+          <t>**EC161**</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Introduction to DATA science and artificial intelligence</t>
+          <t>Digital Design</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Girish Revadigar</t>
+          <t>Prakash Pawar</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2-0-0-0-2</t>
+          <t>3-0-2-0-2</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -2805,7 +2805,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>2/1</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -2815,151 +2815,57 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Complete</t>
+          <t>Partial</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>C104, L407</t>
+          <t>C004, L105, L408</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>**MA162**</t>
+          <t>**SUMMARY**</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Probability</t>
+          <t>Total Courses: 4</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Chinmayananda</t>
+          <t>Complete: 1</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2-0-0-0-2</t>
+          <t>Rate: 25.0%</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2/0</t>
+          <t>Lectures: 8</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>Labs: 4</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>--</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Complete</t>
+          <t>[WARN] 3 issues</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
-        <is>
-          <t>C004, L405</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>**EC161**</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Digital Design</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Prakash Pawar</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>3-0-2-0-2</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>2/0</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2/1</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>Partial</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>C004, C003, L105</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>**SUMMARY**</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Total Courses: 6</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Complete: 2</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Rate: 33.3%</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Lectures: 12</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Labs: 4</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>[WARN] 4 issues</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
         <is>
           <t>--</t>
         </is>
@@ -2976,7 +2882,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3065,7 +2971,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>EC161</t>
+          <t>MA162</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -3096,7 +3002,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -3104,42 +3010,42 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>EC161, CS161, MA162...</t>
+          <t>EC161, MA162, CS161</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.8</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>L105</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Hardware Lab</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Equipment</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -3151,24 +3057,24 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>DS161</t>
+          <t>EC161 (Lab)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.4</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>L105</t>
+          <t>L107</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Hardware Lab</t>
+          <t>Software Lab</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -3178,7 +3084,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Equipment</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -3194,7 +3100,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>EC161 (Lab)</t>
+          <t>CS161 (Lab)</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -3206,26 +3112,26 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>L207</t>
+          <t>L408</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Software Lab</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>80</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Computers</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -3237,139 +3143,10 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>CS161 (Lab)</t>
+          <t>EC161</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
-        <is>
-          <t>0.4</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>L405</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>1</v>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>1</v>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>MA162</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>0.2</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>L407</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>1</v>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>1</v>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>DS161</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>0.2</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>L408</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="E9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>1</v>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>CS161</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
         <is>
           <t>0.2</t>
         </is>
@@ -3386,7 +3163,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P45"/>
+  <dimension ref="A1:P41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3507,17 +3284,17 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Auditorium</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>240</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Audio/Video System</t>
         </is>
       </c>
       <c r="J2" t="b">
@@ -3531,7 +3308,7 @@
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr">
         <is>
-          <t>L408</t>
+          <t>C004</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -3603,7 +3380,7 @@
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr">
         <is>
-          <t>L207</t>
+          <t>L107</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -3675,7 +3452,7 @@
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr">
         <is>
-          <t>L207</t>
+          <t>L107</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -3718,7 +3495,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>MA161</t>
+          <t>MA162</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -3752,7 +3529,7 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>MA161</t>
+          <t>MA162</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -3862,22 +3639,22 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>MA161</t>
+          <t>MA162</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>135</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J7" t="b">
@@ -3891,12 +3668,12 @@
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>MA161</t>
+          <t>MA162</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -3934,7 +3711,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>DS161</t>
+          <t>EC161</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -3963,12 +3740,12 @@
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr">
         <is>
-          <t>L407</t>
+          <t>L408</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>DS161</t>
+          <t>EC161</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -4006,22 +3783,22 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>MA162</t>
+          <t>EC161 (Lab)</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Hardware Lab</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>40</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Equipment</t>
         </is>
       </c>
       <c r="J9" t="b">
@@ -4035,17 +3812,17 @@
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr">
         <is>
-          <t>L405</t>
+          <t>L105</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>MA162</t>
+          <t>EC161 (Lab)</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Lab</t>
         </is>
       </c>
       <c r="P9" t="b">
@@ -4068,32 +3845,32 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>10:30-12:00</t>
+          <t>17:00-18:00</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>DS161</t>
+          <t>EC161 (Lab)</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Hardware Lab</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>40</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>Equipment</t>
         </is>
       </c>
       <c r="J10" t="b">
@@ -4107,17 +3884,17 @@
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr">
         <is>
-          <t>C104</t>
+          <t>L105</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>DS161</t>
+          <t>EC161 (Lab)</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Lab</t>
         </is>
       </c>
       <c r="P10" t="b">
@@ -4145,12 +3922,12 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>10:30-12:00</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>MA162</t>
+          <t>EC161</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -4184,7 +3961,7 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>MA162</t>
+          <t>EC161</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
@@ -4212,32 +3989,32 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>15:30-17:00</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>EC161</t>
+          <t>HS157</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J12" t="b">
@@ -4245,18 +4022,22 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>EC161</t>
+          <t>HS157</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
@@ -4284,7 +4065,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -4294,22 +4075,22 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>EC161</t>
+          <t>HS156</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J13" t="b">
@@ -4317,18 +4098,22 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>EC161</t>
+          <t>HS156</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
@@ -4356,32 +4141,32 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>13:00-14:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>EC161 (Lab)</t>
+          <t>HS152</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Hardware Lab</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Equipment</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J14" t="b">
@@ -4389,23 +4174,27 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>L105</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>EC161 (Lab)</t>
+          <t>HS152</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Lab</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P14" t="b">
@@ -4428,32 +4217,32 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>14:30-15:30</t>
+          <t>09:00-10:30</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>EC161 (Lab)</t>
+          <t>PH151</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Hardware Lab</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Equipment</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J15" t="b">
@@ -4461,23 +4250,27 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Global Tracking</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr"/>
+          <t>Global Tracking (from internal map)</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>ELECTIVE_B1</t>
+        </is>
+      </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>L105</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>EC161 (Lab)</t>
+          <t>PH151</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Lab</t>
+          <t>Lecture</t>
         </is>
       </c>
       <c r="P15" t="b">
@@ -4510,22 +4303,22 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>HS157</t>
+          <t>DS151</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>135</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J16" t="b">
@@ -4543,12 +4336,12 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>HS157</t>
+          <t>DS151</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
@@ -4586,7 +4379,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>HS156</t>
+          <t>CS101</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -4596,12 +4389,12 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J17" t="b">
@@ -4619,12 +4412,12 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>L402</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>HS156</t>
+          <t>CS101</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
@@ -4662,7 +4455,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>HS152</t>
+          <t>HS102</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -4672,7 +4465,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -4695,12 +4488,12 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>L403</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>HS152</t>
+          <t>HS102</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
@@ -4738,7 +4531,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>PH151</t>
+          <t>HS103</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -4748,7 +4541,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -4771,12 +4564,12 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>L404</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>PH151</t>
+          <t>HS103</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
@@ -4814,7 +4607,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>DS151</t>
+          <t>DE101</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -4824,7 +4617,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -4847,12 +4640,12 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>L405</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>DS151</t>
+          <t>DE101</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
@@ -4890,22 +4683,22 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>CS101</t>
+          <t>CS151</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J21" t="b">
@@ -4923,12 +4716,12 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>L406</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>CS101</t>
+          <t>CS151</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
@@ -4956,7 +4749,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -4966,7 +4759,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>HS102</t>
+          <t>HS157</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -4976,12 +4769,12 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J22" t="b">
@@ -4999,12 +4792,12 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>L402</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>HS102</t>
+          <t>HS157</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
@@ -5032,7 +4825,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -5042,7 +4835,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>HS103</t>
+          <t>HS156</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -5052,7 +4845,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -5075,12 +4868,12 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>L404</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>HS103</t>
+          <t>HS156</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
@@ -5108,7 +4901,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -5118,7 +4911,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>DE101</t>
+          <t>HS152</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -5128,7 +4921,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -5151,12 +4944,12 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>L405</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>DE101</t>
+          <t>HS152</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
@@ -5184,7 +4977,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -5194,7 +4987,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>CS151</t>
+          <t>PH151</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -5204,7 +4997,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -5227,12 +5020,12 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>L406</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>CS151</t>
+          <t>PH151</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
@@ -5270,22 +5063,22 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>HS157</t>
+          <t>DS151</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>135</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J26" t="b">
@@ -5303,12 +5096,12 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>HS157</t>
+          <t>DS151</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
@@ -5346,7 +5139,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>HS156</t>
+          <t>CS101</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -5356,12 +5149,12 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J27" t="b">
@@ -5379,12 +5172,12 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>L402</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>HS156</t>
+          <t>CS101</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
@@ -5422,7 +5215,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>HS152</t>
+          <t>HS102</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -5432,7 +5225,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -5455,12 +5248,12 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>L403</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>HS152</t>
+          <t>HS102</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
@@ -5498,7 +5291,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>PH151</t>
+          <t>HS103</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -5508,7 +5301,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -5531,12 +5324,12 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>L404</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>PH151</t>
+          <t>HS103</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
@@ -5574,7 +5367,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>DS151</t>
+          <t>DE101</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -5584,7 +5377,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -5607,12 +5400,12 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>L405</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>DS151</t>
+          <t>DE101</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
@@ -5650,22 +5443,22 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>CS101</t>
+          <t>CS151</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J31" t="b">
@@ -5683,12 +5476,12 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>L406</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>CS101</t>
+          <t>CS151</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
@@ -5716,17 +5509,17 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>HS102</t>
+          <t>HS157</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -5736,12 +5529,12 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J32" t="b">
@@ -5759,17 +5552,17 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>L402</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>HS102</t>
+          <t>HS157</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
       <c r="P32" t="b">
@@ -5792,17 +5585,17 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>HS103</t>
+          <t>HS156</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -5812,7 +5605,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -5835,17 +5628,17 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>L404</t>
+          <t>C303</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>HS103</t>
+          <t>HS156</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
       <c r="P33" t="b">
@@ -5868,17 +5661,17 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>DE101</t>
+          <t>HS152</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -5888,7 +5681,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -5911,17 +5704,17 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>L405</t>
+          <t>C304</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>DE101</t>
+          <t>HS152</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
       <c r="P34" t="b">
@@ -5944,17 +5737,17 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>09:00-10:30</t>
+          <t>14:30-15:30</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>CS151</t>
+          <t>PH151</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -5964,7 +5757,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -5987,17 +5780,17 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>L406</t>
+          <t>C305</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>CS151</t>
+          <t>PH151</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>Lecture</t>
+          <t>Tutorial</t>
         </is>
       </c>
       <c r="P35" t="b">
@@ -6030,22 +5823,22 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>HS157</t>
+          <t>DS151</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>135</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J36" t="b">
@@ -6063,12 +5856,12 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>HS157</t>
+          <t>DS151</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
@@ -6106,7 +5899,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>HS156</t>
+          <t>CS101</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -6116,12 +5909,12 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J37" t="b">
@@ -6139,12 +5932,12 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>L402</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>HS156</t>
+          <t>CS101</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
@@ -6182,7 +5975,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>HS152</t>
+          <t>HS102</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -6192,7 +5985,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -6215,12 +6008,12 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>C303</t>
+          <t>L403</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>HS152</t>
+          <t>HS102</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
@@ -6258,7 +6051,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>PH151</t>
+          <t>HS103</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -6268,7 +6061,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -6291,12 +6084,12 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>C304</t>
+          <t>L404</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>PH151</t>
+          <t>HS103</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
@@ -6334,7 +6127,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>DS151</t>
+          <t>DE101</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -6344,7 +6137,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -6367,12 +6160,12 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>L405</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>DS151</t>
+          <t>DE101</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
@@ -6410,22 +6203,22 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>CS101</t>
+          <t>CS151</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J41" t="b">
@@ -6443,12 +6236,12 @@
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>L406</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>CS101</t>
+          <t>CS151</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
@@ -6457,310 +6250,6 @@
         </is>
       </c>
       <c r="P41" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n">
-        <v>1</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>HS102</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="J42" t="b">
-        <v>0</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t>L402</t>
-        </is>
-      </c>
-      <c r="N42" t="inlineStr">
-        <is>
-          <t>HS102</t>
-        </is>
-      </c>
-      <c r="O42" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
-      <c r="P42" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n">
-        <v>1</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>HS103</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="J43" t="b">
-        <v>0</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="M43" t="inlineStr">
-        <is>
-          <t>L404</t>
-        </is>
-      </c>
-      <c r="N43" t="inlineStr">
-        <is>
-          <t>HS103</t>
-        </is>
-      </c>
-      <c r="O43" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
-      <c r="P43" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n">
-        <v>1</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>DE101</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="J44" t="b">
-        <v>0</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="M44" t="inlineStr">
-        <is>
-          <t>L405</t>
-        </is>
-      </c>
-      <c r="N44" t="inlineStr">
-        <is>
-          <t>DE101</t>
-        </is>
-      </c>
-      <c r="O44" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
-      <c r="P44" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n">
-        <v>1</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>Fri</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>14:30-15:30</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>CS151</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>classroom</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>TV</t>
-        </is>
-      </c>
-      <c r="J45" t="b">
-        <v>0</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>Global Tracking (from internal map)</t>
-        </is>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>ELECTIVE_B1</t>
-        </is>
-      </c>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>L406</t>
-        </is>
-      </c>
-      <c r="N45" t="inlineStr">
-        <is>
-          <t>CS151</t>
-        </is>
-      </c>
-      <c r="O45" t="inlineStr">
-        <is>
-          <t>Tutorial</t>
-        </is>
-      </c>
-      <c r="P45" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6775,7 +6264,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6900,27 +6389,27 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DS161</t>
+          <t>EC161</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Introduction to DATA science and artificial intelligence</t>
+          <t>Digital Design</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2-0-0-0-2</t>
+          <t>3-0-2-0-2</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2/0/0</t>
+          <t>3/0/2</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2/0/0</t>
+          <t>2/0/2</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -6940,7 +6429,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>[OK]</t>
+          <t>[FAIL]</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -6957,27 +6446,27 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>EC161</t>
+          <t>ELECTIVE_B1</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Digital Design</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>3-0-2-0-2</t>
+          <t>3-0-0-0-3</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3/0/2</t>
+          <t>3/0/0</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2/0/2</t>
+          <t>2/1/0</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -6997,7 +6486,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>[FAIL]</t>
+          <t>[OK]</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -7014,27 +6503,27 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ELECTIVE_B1</t>
+          <t>MA162</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Probability</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>3-0-0-0-3</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3/0/0</t>
+          <t>2/0/0</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2/1/0</t>
+          <t>2/0/0</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -7063,120 +6552,6 @@
         </is>
       </c>
       <c r="K5" t="inlineStr">
-        <is>
-          <t>Check scheduling</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>MA161</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Statistics</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>3-0-2-0-2</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>3/0/2</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>2/0/0</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0/0/0</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>[FAIL]</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>[OK]</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>[FAIL]</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>[WARN] PARTIAL</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>Check scheduling</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>MA162</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Probability</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>2-0-0-0-2</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>2/0/0</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>2/0/0</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0/0/0</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>[FAIL]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>[OK]</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>[OK]</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>[WARN] PARTIAL</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
         <is>
           <t>Check scheduling</t>
         </is>
@@ -7256,7 +6631,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2026-01-26 01:05</t>
+          <t>2026-01-26 12:46</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -7277,11 +6652,11 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Core: 5, Elective: 1</t>
+          <t>Core: 3, Elective: 1</t>
         </is>
       </c>
     </row>
@@ -7303,7 +6678,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0/6 courses fully compliant</t>
+          <t>0/4 courses fully compliant</t>
         </is>
       </c>
     </row>
@@ -7320,12 +6695,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>8/36</t>
+          <t>5/36</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Utilization: 22.2%</t>
+          <t>Utilization: 13.9%</t>
         </is>
       </c>
     </row>
@@ -7342,12 +6717,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>18.9%</t>
+          <t>14.4%</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>A: 37.8%, B: 0.0%</t>
+          <t>A: 28.9%, B: 0.0%</t>
         </is>
       </c>
     </row>
@@ -7369,7 +6744,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Score: 29.7/100</t>
+          <t>Score: 28.3/100</t>
         </is>
       </c>
     </row>
@@ -7384,7 +6759,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P16"/>
+  <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7778,12 +7153,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>MA161</t>
+          <t>MA162</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Statistics</t>
+          <t>Probability</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -7805,12 +7180,12 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Ramesh Athe</t>
+          <t>Chinmayananda</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>CSE</t>
+          <t>DSAI</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
@@ -7850,12 +7225,12 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>DS161</t>
+          <t>EC161</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Introduction to data science and artifical inteligance</t>
+          <t>Digital Design</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -7863,26 +7238,26 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2-0-0-0-2</t>
+          <t>3-0-2-0-2</t>
         </is>
       </c>
       <c r="H7" t="n">
+        <v>3</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
         <v>2</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Abdul Wahid</t>
+          <t>Prakash Pawar</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>CSE</t>
+          <t>DSAI</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
@@ -7922,12 +7297,12 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>MA162</t>
+          <t>PH151</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Probability</t>
+          <t>Introduction to quantum Physics</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -7949,7 +7324,7 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Chinmayananda</t>
+          <t>Ravishankar</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -7969,7 +7344,7 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
@@ -7994,12 +7369,12 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>EC161</t>
+          <t>DS151</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Digital Design</t>
+          <t>Linux for Engineers</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -8007,21 +7382,21 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>3-0-2-0-2</t>
+          <t>2-0-0-0-2</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Prakash Pawar</t>
+          <t>Vivekraj</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
@@ -8041,7 +7416,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
@@ -8066,12 +7441,12 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>PH151</t>
+          <t>CS101</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Introduction to quantum Physics</t>
+          <t>Fundamentals of Computing</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -8093,7 +7468,7 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Ravishankar</t>
+          <t>Mallikarjun K</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
@@ -8138,12 +7513,12 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>DS151</t>
+          <t>HS102</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Linux for Engineers</t>
+          <t>Kannada Kali-Nali</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -8165,7 +7540,7 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Vivekraj</t>
+          <t>Anand B</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
@@ -8210,12 +7585,12 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>CS101</t>
+          <t>HS103</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Fundamentals of Computing</t>
+          <t>Leveraging IT for Better Life</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -8237,7 +7612,7 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Mallikarjun K</t>
+          <t>Rajesh N S</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -8282,12 +7657,12 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>HS102</t>
+          <t>DE101</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Kannada Kali-Nali</t>
+          <t>Basics of Design</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -8309,7 +7684,7 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Anand B</t>
+          <t>Sandesh Phalke</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -8354,12 +7729,12 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>HS103</t>
+          <t>CS151</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Leveraging IT for Better Life</t>
+          <t>introduction to cyber security</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -8381,7 +7756,7 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Rajesh N S</t>
+          <t>Girish Revadigar</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
@@ -8405,150 +7780,6 @@
         </is>
       </c>
       <c r="P14" t="inlineStr">
-        <is>
-          <t>Half Semester = Yes (scheduled in both pre-mid and post-mid)</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Pre-Mid</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>1</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>DE101</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>Basics of Design</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>2</v>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>2-0-0-0-2</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>2</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>Sandesh Phalke</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>Half Semester = Yes (scheduled in both pre-mid and post-mid)</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Pre-Mid</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>1</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>CS151</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>introduction to cyber security</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>2</v>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>2-0-0-0-2</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>2</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>Girish Revadigar</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>DSAI</t>
-        </is>
-      </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="P16" t="inlineStr">
         <is>
           <t>Half Semester = Yes (scheduled in both pre-mid and post-mid)</t>
         </is>

--- a/backend/output_timetables/sem1_DSAI_pre_mid_timetable.xlsx
+++ b/backend/output_timetables/sem1_DSAI_pre_mid_timetable.xlsx
@@ -521,7 +521,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CS161 [C004]</t>
+          <t>CS161 [C002]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -548,7 +548,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CS161 [C004]</t>
+          <t>CS161 [C102]</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -558,7 +558,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>EC161 [C004]</t>
+          <t>EC161 [C002]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -612,12 +612,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CS161 (Lab) [L107]</t>
+          <t>CS161 (Lab) [L106]</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>EC161 [L408]</t>
+          <t>EC161 [C002]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -644,7 +644,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CS161 (Lab) [L107]</t>
+          <t>CS161 (Lab) [L106]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -676,7 +676,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>MA162 [C004]</t>
+          <t>MA162 [C003]</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -872,16 +872,16 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>11.25</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -906,16 +906,16 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>3.75</v>
+        <v>7.5</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -940,16 +940,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -1008,16 +1008,16 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -1144,16 +1144,16 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>6.25</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -1178,16 +1178,16 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>6.25</v>
+        <v>0</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -2008,16 +2008,16 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
@@ -2121,7 +2121,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CS161 [C004]</t>
+          <t>CS161 [C002]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -2148,7 +2148,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CS161 [C004]</t>
+          <t>CS161 [C102]</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -2158,7 +2158,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>EC161 [C004]</t>
+          <t>EC161 [C002]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -2212,12 +2212,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CS161 (Lab) [L107]</t>
+          <t>CS161 (Lab) [L106]</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>EC161 [L408]</t>
+          <t>EC161 [C002]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -2244,7 +2244,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CS161 (Lab) [L107]</t>
+          <t>CS161 (Lab) [L106]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -2276,7 +2276,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>MA162 [C004]</t>
+          <t>MA162 [C003]</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -2413,7 +2413,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C203</t>
         </is>
       </c>
     </row>
@@ -2464,7 +2464,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C101</t>
         </is>
       </c>
     </row>
@@ -2481,7 +2481,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C102</t>
         </is>
       </c>
     </row>
@@ -2498,7 +2498,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>L402</t>
+          <t>C104</t>
         </is>
       </c>
     </row>
@@ -2515,7 +2515,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>L403</t>
+          <t>C204</t>
         </is>
       </c>
     </row>
@@ -2532,7 +2532,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>L404</t>
+          <t>C205</t>
         </is>
       </c>
     </row>
@@ -2549,7 +2549,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>L405</t>
+          <t>C302</t>
         </is>
       </c>
     </row>
@@ -2566,7 +2566,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>L406</t>
+          <t>C202</t>
         </is>
       </c>
     </row>
@@ -2726,7 +2726,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>C004, L107</t>
+          <t>C002, C102, L106</t>
         </is>
       </c>
     </row>
@@ -2773,7 +2773,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>C004, C003</t>
+          <t>C003</t>
         </is>
       </c>
     </row>
@@ -2820,7 +2820,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>C004, L105, L408</t>
+          <t>C002, L105</t>
         </is>
       </c>
     </row>
@@ -2940,7 +2940,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -2950,7 +2950,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>120</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -2959,7 +2959,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -2967,42 +2967,42 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>MA162</t>
+          <t>CS161, EC161</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.6</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>135</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -3010,42 +3010,42 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>EC161, MA162, CS161</t>
+          <t>MA162</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>0.8</t>
+          <t>0.4</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>L105</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Hardware Lab</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>96</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Equipment</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -3057,24 +3057,24 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>EC161 (Lab)</t>
+          <t>CS161</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>L107</t>
+          <t>L105</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Software Lab</t>
+          <t>Hardware Lab</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -3084,7 +3084,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Computers</t>
+          <t>Equipment</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -3100,7 +3100,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>CS161 (Lab)</t>
+          <t>EC161 (Lab)</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -3112,26 +3112,26 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>L408</t>
+          <t>L106</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>Software Lab</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Computers</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -3143,12 +3143,12 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>EC161</t>
+          <t>CS161 (Lab)</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.4</t>
         </is>
       </c>
     </row>
@@ -3284,17 +3284,17 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J2" t="b">
@@ -3308,7 +3308,7 @@
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -3380,7 +3380,7 @@
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr">
         <is>
-          <t>L107</t>
+          <t>L106</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -3452,7 +3452,7 @@
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr">
         <is>
-          <t>L107</t>
+          <t>L106</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -3500,17 +3500,17 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>135</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J5" t="b">
@@ -3524,7 +3524,7 @@
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C003</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -3572,17 +3572,17 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>120</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J6" t="b">
@@ -3596,7 +3596,7 @@
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -3716,17 +3716,17 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>classroom</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>120</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J8" t="b">
@@ -3740,7 +3740,7 @@
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr">
         <is>
-          <t>L408</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -3932,17 +3932,17 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Auditorium</t>
+          <t>large classroom</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>120</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Audio/Video System</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J11" t="b">
@@ -3956,7 +3956,7 @@
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr">
         <is>
-          <t>C004</t>
+          <t>C002</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -4014,7 +4014,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J12" t="b">
@@ -4032,7 +4032,7 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -4242,7 +4242,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J15" t="b">
@@ -4260,7 +4260,7 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
@@ -4308,12 +4308,12 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -4336,7 +4336,7 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
@@ -4389,12 +4389,12 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J17" t="b">
@@ -4412,7 +4412,7 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>L402</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
@@ -4465,7 +4465,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -4488,7 +4488,7 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>L403</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
@@ -4541,7 +4541,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -4564,7 +4564,7 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>L404</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
@@ -4617,12 +4617,12 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J20" t="b">
@@ -4640,7 +4640,7 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>L405</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
@@ -4693,12 +4693,12 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J21" t="b">
@@ -4716,7 +4716,7 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>L406</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
@@ -4774,7 +4774,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J22" t="b">
@@ -4792,7 +4792,7 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
@@ -5002,7 +5002,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J25" t="b">
@@ -5020,7 +5020,7 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
@@ -5068,12 +5068,12 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -5096,7 +5096,7 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
@@ -5149,12 +5149,12 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J27" t="b">
@@ -5172,7 +5172,7 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>L402</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
@@ -5225,7 +5225,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -5248,7 +5248,7 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>L403</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
@@ -5301,7 +5301,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -5324,7 +5324,7 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>L404</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
@@ -5377,12 +5377,12 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J30" t="b">
@@ -5400,7 +5400,7 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>L405</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
@@ -5453,12 +5453,12 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J31" t="b">
@@ -5476,7 +5476,7 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>L406</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
@@ -5534,7 +5534,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>Projector</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="J32" t="b">
@@ -5552,7 +5552,7 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>C302</t>
+          <t>C203</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
@@ -5762,7 +5762,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J35" t="b">
@@ -5780,7 +5780,7 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>C305</t>
+          <t>C101</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
@@ -5828,12 +5828,12 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>large classroom</t>
+          <t>classroom</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -5856,7 +5856,7 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>C003</t>
+          <t>C102</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
@@ -5909,12 +5909,12 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J37" t="b">
@@ -5932,7 +5932,7 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>L402</t>
+          <t>C104</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
@@ -5985,7 +5985,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -6008,7 +6008,7 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>L403</t>
+          <t>C204</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
@@ -6061,7 +6061,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -6084,7 +6084,7 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>L404</t>
+          <t>C205</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
@@ -6137,12 +6137,12 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J40" t="b">
@@ -6160,7 +6160,7 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>L405</t>
+          <t>C302</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
@@ -6213,12 +6213,12 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>Projector</t>
         </is>
       </c>
       <c r="J41" t="b">
@@ -6236,7 +6236,7 @@
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>L406</t>
+          <t>C202</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
@@ -6631,7 +6631,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2026-01-26 12:46</t>
+          <t>2026-01-26 21:32</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
